--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_20_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2054921.236020626</v>
+        <v>2051777.788744155</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5304432.985790841</v>
+        <v>5304432.985790843</v>
       </c>
     </row>
     <row r="9">
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>318.6192936334357</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>325.2425882310128</v>
       </c>
       <c r="G11" t="n">
-        <v>152.1428250023871</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>198.3010087783265</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,19 +1426,19 @@
         <v>120.7468317151689</v>
       </c>
       <c r="U11" t="n">
-        <v>162.7723773111821</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>221.4262739408766</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>305.0594441579005</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>305.3497866265543</v>
       </c>
     </row>
     <row r="12">
@@ -1451,19 +1451,19 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C12" t="n">
-        <v>132.6551205385437</v>
+        <v>46.66407069022094</v>
       </c>
       <c r="D12" t="n">
-        <v>24.15066650796498</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E12" t="n">
-        <v>27.71036815275879</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F12" t="n">
-        <v>16.29276132448396</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G12" t="n">
-        <v>18.99289726768438</v>
+        <v>104.9839471160071</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>89.51940840416924</v>
       </c>
       <c r="T12" t="n">
-        <v>153.9746424427086</v>
+        <v>62.39712274787209</v>
       </c>
       <c r="U12" t="n">
         <v>103.7381867134061</v>
       </c>
       <c r="V12" t="n">
-        <v>211.5744117368965</v>
+        <v>119.99689204206</v>
       </c>
       <c r="W12" t="n">
         <v>119.523316886198</v>
       </c>
       <c r="X12" t="n">
-        <v>174.5627220424961</v>
+        <v>82.98520234765962</v>
       </c>
       <c r="Y12" t="n">
         <v>66.23042034497178</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>94.24518963526745</v>
       </c>
       <c r="C13" t="n">
         <v>77.80491901906416</v>
@@ -1542,7 +1542,7 @@
         <v>71.40729493567815</v>
       </c>
       <c r="G13" t="n">
-        <v>26.51467317291505</v>
+        <v>73.21543481119508</v>
       </c>
       <c r="H13" t="n">
         <v>49.55509604583903</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>79.27109524611247</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>142.2219287645029</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>188.3498317758998</v>
+        <v>137.9860825826813</v>
       </c>
       <c r="V13" t="n">
         <v>179.5693679150368</v>
@@ -1596,7 +1596,7 @@
         <v>144.3829038240769</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>130.9108219302864</v>
       </c>
     </row>
     <row r="14">
@@ -1606,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>314.5414481730081</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>314.4458250850261</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>308.8417709130335</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>325.2425882310128</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>120.7468317151689</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>162.7723773111821</v>
+        <v>34.64609387389099</v>
       </c>
       <c r="V14" t="n">
-        <v>254.7616594220476</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>288.3451781613466</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>125.9562898307551</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>305.3497866265543</v>
       </c>
     </row>
     <row r="15">
@@ -1688,10 +1688,10 @@
         <v>47.32248261439426</v>
       </c>
       <c r="C15" t="n">
-        <v>41.07760084370724</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D15" t="n">
-        <v>115.7281862028015</v>
+        <v>24.15066650796498</v>
       </c>
       <c r="E15" t="n">
         <v>27.71036815275879</v>
@@ -1703,7 +1703,7 @@
         <v>13.40642742117063</v>
       </c>
       <c r="H15" t="n">
-        <v>60.99739740025424</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>62.39712274787209</v>
+        <v>153.9746424427086</v>
       </c>
       <c r="U15" t="n">
-        <v>137.8466675638349</v>
+        <v>195.3157064082426</v>
       </c>
       <c r="V15" t="n">
         <v>211.5744117368965</v>
@@ -1754,7 +1754,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y15" t="n">
-        <v>157.8079400398083</v>
+        <v>69.75877890081831</v>
       </c>
     </row>
     <row r="16">
@@ -1821,16 +1821,16 @@
         <v>142.2219287645029</v>
       </c>
       <c r="U16" t="n">
-        <v>188.3498317758998</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>179.5693679150368</v>
+        <v>96.06242648710266</v>
       </c>
       <c r="W16" t="n">
-        <v>57.22757877162076</v>
+        <v>184.7014481513779</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>144.3829038240769</v>
       </c>
       <c r="Y16" t="n">
         <v>130.9108219302864</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>314.5414481730081</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>308.8417709130335</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>318.6192936334357</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>325.2425882310128</v>
       </c>
       <c r="G17" t="n">
-        <v>311.3136088579291</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>198.3010087783265</v>
+        <v>88.38068491968595</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2.475520303984453</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>144.8270879492155</v>
+        <v>254.7616594220476</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>288.3451781613466</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,22 +1925,22 @@
         <v>138.9000023092308</v>
       </c>
       <c r="C18" t="n">
-        <v>46.66407069022077</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D18" t="n">
-        <v>24.15066650796498</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E18" t="n">
-        <v>27.71036815275879</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F18" t="n">
-        <v>16.29276132448396</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G18" t="n">
         <v>13.40642742117063</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>3.528358555846403</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>89.51940840416924</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>153.9746424427086</v>
+        <v>62.39712274787209</v>
       </c>
       <c r="U18" t="n">
-        <v>195.3157064082426</v>
+        <v>103.7381867134061</v>
       </c>
       <c r="V18" t="n">
         <v>119.99689204206</v>
@@ -1988,7 +1988,7 @@
         <v>119.523316886198</v>
       </c>
       <c r="X18" t="n">
-        <v>174.5627220424961</v>
+        <v>82.98520234765962</v>
       </c>
       <c r="Y18" t="n">
         <v>157.8079400398083</v>
@@ -2004,7 +2004,7 @@
         <v>94.24518963526745</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>77.80491901906416</v>
       </c>
       <c r="D19" t="n">
         <v>66.32217853548258</v>
@@ -2013,13 +2013,13 @@
         <v>67.72418728552722</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>71.40729493567815</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>73.21543481119508</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1259716079422678</v>
+        <v>1.352321912194606</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.27109524611247</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>142.2219287645029</v>
@@ -2067,7 +2067,7 @@
         <v>184.7014481513779</v>
       </c>
       <c r="X19" t="n">
-        <v>144.3829038240769</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>130.9108219302864</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>314.5414481730081</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>314.4458250850261</v>
       </c>
       <c r="D20" t="n">
-        <v>308.8417709130335</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>318.6192936334357</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>325.2425882310128</v>
       </c>
       <c r="G20" t="n">
-        <v>311.3136088579291</v>
+        <v>125.2940544041394</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>198.3010087783265</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.47552030398446</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>11.3321427321171</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>83.4890747554897</v>
+        <v>138.9000023092308</v>
       </c>
       <c r="C21" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D21" t="n">
-        <v>115.7281862028015</v>
+        <v>24.15066650796498</v>
       </c>
       <c r="E21" t="n">
-        <v>27.71036815275879</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F21" t="n">
-        <v>107.8702810193205</v>
+        <v>16.29276132448396</v>
       </c>
       <c r="G21" t="n">
-        <v>13.40642742117063</v>
+        <v>47.51490827159901</v>
       </c>
       <c r="H21" t="n">
         <v>60.99739740025424</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>89.51940840416924</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>62.39712274787209</v>
       </c>
       <c r="U21" t="n">
-        <v>103.7381867134061</v>
+        <v>195.3157064082426</v>
       </c>
       <c r="V21" t="n">
-        <v>119.99689204206</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W21" t="n">
         <v>119.523316886198</v>
@@ -2228,7 +2228,7 @@
         <v>82.98520234765962</v>
       </c>
       <c r="Y21" t="n">
-        <v>157.8079400398083</v>
+        <v>66.23042034497178</v>
       </c>
     </row>
     <row r="22">
@@ -2241,16 +2241,16 @@
         <v>94.24518963526745</v>
       </c>
       <c r="C22" t="n">
-        <v>77.80491901906416</v>
+        <v>11.40180657191793</v>
       </c>
       <c r="D22" t="n">
-        <v>66.32217853548258</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>67.72418728552722</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>71.40729493567815</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>73.21543481119508</v>
@@ -2301,10 +2301,10 @@
         <v>179.5693679150368</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>184.7014481513779</v>
       </c>
       <c r="X22" t="n">
-        <v>57.22757877162031</v>
+        <v>144.3829038240769</v>
       </c>
       <c r="Y22" t="n">
         <v>130.9108219302864</v>
@@ -2320,13 +2320,13 @@
         <v>314.5414481730081</v>
       </c>
       <c r="C23" t="n">
-        <v>239.1752774593654</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>318.6192936334357</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>325.2425882310128</v>
@@ -2368,22 +2368,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>2.475520303984453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>120.7468317151689</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>162.7723773111821</v>
       </c>
       <c r="V23" t="n">
         <v>254.7616594220476</v>
       </c>
       <c r="W23" t="n">
-        <v>288.3451781613466</v>
+        <v>255.0855757659117</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>305.0594441579005</v>
       </c>
       <c r="Y23" t="n">
         <v>305.3497866265543</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>94.24518963526745</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>77.80491901906416</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>66.32217853548258</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>104.6466299611517</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>73.21543481119508</v>
+        <v>164.7929545060316</v>
       </c>
       <c r="H25" t="n">
         <v>141.1326157406755</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S25" t="n">
-        <v>170.848614940949</v>
+        <v>79.27109524611247</v>
       </c>
       <c r="T25" t="n">
-        <v>233.7994484593394</v>
+        <v>142.2219287645029</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9273514707363</v>
+        <v>188.3498317758998</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>179.5693679150368</v>
       </c>
       <c r="W25" t="n">
         <v>184.7014481513779</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>144.3829038240769</v>
       </c>
       <c r="Y25" t="n">
-        <v>130.9108219302864</v>
+        <v>167.8332646059113</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>376.9379959674441</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>376.8423728794621</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>371.2383187074696</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.0158414278718</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>387.6391360254489</v>
       </c>
       <c r="G26" t="n">
-        <v>41.72766454358256</v>
+        <v>373.7101566523652</v>
       </c>
       <c r="H26" t="n">
-        <v>260.6975565727626</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>64.8720680984205</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>183.143379509605</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>225.1689251056181</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>317.1582072164837</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>350.7417259557827</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>367.4559919523365</v>
+        <v>288.2660276829644</v>
       </c>
       <c r="Y26" t="n">
-        <v>367.7463344209904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>111.9516438402751</v>
       </c>
       <c r="I28" t="n">
-        <v>62.39654779443605</v>
+        <v>62.39654779443603</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.94559265106834</v>
+        <v>19.94559265106833</v>
       </c>
       <c r="S28" t="n">
         <v>141.6676430405485</v>
@@ -2769,7 +2769,7 @@
         <v>204.618476558939</v>
       </c>
       <c r="U28" t="n">
-        <v>250.7463795703359</v>
+        <v>250.7463795703358</v>
       </c>
       <c r="V28" t="n">
         <v>241.9659157094728</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>376.9379959674441</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>376.8423728794621</v>
       </c>
       <c r="D29" t="n">
-        <v>117.2312335399748</v>
+        <v>371.2383187074696</v>
       </c>
       <c r="E29" t="n">
-        <v>381.0158414278718</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>387.6391360254489</v>
@@ -2809,7 +2809,7 @@
         <v>373.7101566523652</v>
       </c>
       <c r="H29" t="n">
-        <v>260.6975565727626</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>317.1582072164837</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>350.7417259557827</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>367.4559919523365</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>301.8258771584997</v>
       </c>
     </row>
     <row r="30">
@@ -3031,16 +3031,16 @@
         <v>327.1913127233301</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>327.0956896353481</v>
       </c>
       <c r="D32" t="n">
         <v>321.4916354633556</v>
       </c>
       <c r="E32" t="n">
-        <v>176.827398431531</v>
+        <v>331.2691581837578</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>145.2811399162964</v>
       </c>
       <c r="G32" t="n">
         <v>323.9634734082512</v>
@@ -3082,10 +3082,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>133.396696265491</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>175.4222418615041</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>267.4115239723697</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>317.9996511768763</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3195,19 +3195,19 @@
         <v>78.97204308580461</v>
       </c>
       <c r="E34" t="n">
-        <v>80.37405183584926</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>84.05715948600019</v>
       </c>
       <c r="G34" t="n">
-        <v>85.86529936151712</v>
+        <v>164.7929545060316</v>
       </c>
       <c r="H34" t="n">
-        <v>141.1326157406755</v>
+        <v>62.20496059616107</v>
       </c>
       <c r="I34" t="n">
-        <v>12.64986455032204</v>
+        <v>76.42761051935359</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>155.6987057654661</v>
+        <v>170.8486149409489</v>
       </c>
       <c r="T34" t="n">
         <v>154.871793314825</v>
@@ -3249,10 +3249,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>197.3513127016999</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>157.032768374399</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>180.6648298117548</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>321.4916354633556</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>329.2684303936077</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>323.9634734082512</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>210.9508733286486</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.1253848543065</v>
+        <v>15.12538485430649</v>
       </c>
       <c r="T35" t="n">
-        <v>133.396696265491</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>175.4222418615041</v>
       </c>
       <c r="V35" t="n">
-        <v>89.69782455970358</v>
+        <v>267.4115239723697</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>317.7093087082225</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>138.9000023092308</v>
+        <v>134.865075448005</v>
       </c>
       <c r="C36" t="n">
-        <v>53.72746539402928</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D36" t="n">
-        <v>36.80053105828702</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E36" t="n">
-        <v>40.36023270308083</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F36" t="n">
-        <v>28.942625874806</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G36" t="n">
-        <v>104.9839471160071</v>
+        <v>26.05629197149267</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>89.51940840416924</v>
+        <v>10.59175325965478</v>
       </c>
       <c r="T36" t="n">
-        <v>153.9746424427086</v>
+        <v>75.04698729819413</v>
       </c>
       <c r="U36" t="n">
-        <v>191.2807795470164</v>
+        <v>116.3880512637281</v>
       </c>
       <c r="V36" t="n">
         <v>132.646756592382</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>106.8950541855895</v>
       </c>
       <c r="C37" t="n">
         <v>90.45478356938619</v>
       </c>
       <c r="D37" t="n">
-        <v>78.97204308580461</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>80.37405183584926</v>
@@ -3441,10 +3441,10 @@
         <v>85.86529936151712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.20496059616107</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>12.64986455032204</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>91.9209597964345</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>154.871793314825</v>
       </c>
       <c r="U37" t="n">
-        <v>200.9996963262219</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>192.2192324653588</v>
       </c>
       <c r="W37" t="n">
-        <v>197.3513127016999</v>
+        <v>15.7183106550623</v>
       </c>
       <c r="X37" t="n">
-        <v>123.9706593590663</v>
+        <v>157.032768374399</v>
       </c>
       <c r="Y37" t="n">
         <v>143.5606864806085</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>327.1913127233301</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>329.2684303936077</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>45.13471945521018</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>210.9508733286486</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>133.396696265491</v>
+        <v>5.335934089099624</v>
       </c>
       <c r="U38" t="n">
         <v>175.4222418615041</v>
@@ -3565,10 +3565,10 @@
         <v>267.4115239723697</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>300.9950427116686</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>317.7093087082225</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,19 +3581,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>59.9723471647163</v>
+        <v>134.865075448005</v>
       </c>
       <c r="C39" t="n">
-        <v>53.72746539402928</v>
+        <v>132.6551205385437</v>
       </c>
       <c r="D39" t="n">
-        <v>36.80053105828702</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E39" t="n">
-        <v>40.36023270308083</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F39" t="n">
-        <v>28.942625874806</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G39" t="n">
         <v>26.05629197149267</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>89.51940840416924</v>
+        <v>10.59175325965478</v>
       </c>
       <c r="T39" t="n">
         <v>75.04698729819413</v>
@@ -3641,16 +3641,16 @@
         <v>116.3880512637281</v>
       </c>
       <c r="V39" t="n">
-        <v>211.5744117368965</v>
+        <v>132.646756592382</v>
       </c>
       <c r="W39" t="n">
-        <v>207.0659097198083</v>
+        <v>132.1731814365201</v>
       </c>
       <c r="X39" t="n">
-        <v>174.5627220424961</v>
+        <v>95.63506689798166</v>
       </c>
       <c r="Y39" t="n">
-        <v>157.8079400398083</v>
+        <v>78.88028489529381</v>
       </c>
     </row>
     <row r="40">
@@ -3666,13 +3666,13 @@
         <v>90.45478356938619</v>
       </c>
       <c r="D40" t="n">
-        <v>78.97204308580461</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>80.37405183584926</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>69.9458153045094</v>
       </c>
       <c r="G40" t="n">
         <v>85.86529936151712</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>91.9209597964345</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>82.89473201513893</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>192.2192324653588</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>329.2684303936077</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,13 +3748,13 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>5.581431506933809</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="F41" t="n">
-        <v>329.2684303936077</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="H41" t="n">
         <v>240.131845229049</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>44.30635675470695</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>49.88778826164074</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>89.15331906511675</v>
+        <v>89.15331906511676</v>
       </c>
       <c r="C42" t="n">
-        <v>82.90843729442973</v>
+        <v>82.90843729442975</v>
       </c>
       <c r="D42" t="n">
-        <v>65.98150295868747</v>
+        <v>65.98150295868749</v>
       </c>
       <c r="E42" t="n">
-        <v>69.54120460348128</v>
+        <v>69.5412046034813</v>
       </c>
       <c r="F42" t="n">
-        <v>58.12359777520645</v>
+        <v>58.12359777520647</v>
       </c>
       <c r="G42" t="n">
-        <v>55.23726387189312</v>
+        <v>55.23726387189314</v>
       </c>
       <c r="H42" t="n">
-        <v>11.25071415614023</v>
+        <v>11.25071415614025</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>39.77272516005529</v>
+        <v>39.77272516005552</v>
       </c>
       <c r="T42" t="n">
         <v>104.2279591985946</v>
       </c>
       <c r="U42" t="n">
-        <v>145.5690231641282</v>
+        <v>145.5690231641284</v>
       </c>
       <c r="V42" t="n">
         <v>161.8277284927825</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>136.07602608599</v>
       </c>
       <c r="C43" t="n">
-        <v>119.6357554697866</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>108.1530149862051</v>
@@ -3909,16 +3909,16 @@
         <v>109.5550237362497</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>113.2381313864007</v>
       </c>
       <c r="G43" t="n">
-        <v>89.36363974302716</v>
+        <v>115.0462712619176</v>
       </c>
       <c r="H43" t="n">
-        <v>91.38593249656151</v>
+        <v>91.38593249656152</v>
       </c>
       <c r="I43" t="n">
-        <v>41.83083645072249</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>121.1019316968349</v>
+        <v>121.101931696835</v>
       </c>
       <c r="T43" t="n">
         <v>184.0527652152254</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>126.4741694251192</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>226.5322846021003</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>186.2137402747994</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>172.7416583810089</v>
       </c>
     </row>
     <row r="44">
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>290.0196334906899</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>329.2684303936079</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>329.2684303936079</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>44.30635675470695</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>245.7132767359828</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>329.268430393608</v>
       </c>
       <c r="X44" t="n">
-        <v>329.2684303936079</v>
+        <v>329.268430393608</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>329.268430393608</v>
       </c>
     </row>
     <row r="45">
@@ -4055,25 +4055,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>89.15331906511675</v>
+        <v>89.15331906511676</v>
       </c>
       <c r="C45" t="n">
-        <v>82.90843729442973</v>
+        <v>82.90843729442975</v>
       </c>
       <c r="D45" t="n">
-        <v>65.98150295868747</v>
+        <v>65.98150295868749</v>
       </c>
       <c r="E45" t="n">
-        <v>69.54120460348128</v>
+        <v>69.5412046034813</v>
       </c>
       <c r="F45" t="n">
-        <v>58.12359777520645</v>
+        <v>58.12359777520647</v>
       </c>
       <c r="G45" t="n">
-        <v>55.23726387189312</v>
+        <v>55.23726387189314</v>
       </c>
       <c r="H45" t="n">
-        <v>11.25071415614023</v>
+        <v>11.25071415614025</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>39.77272516005523</v>
+        <v>39.77272516005525</v>
       </c>
       <c r="T45" t="n">
         <v>104.2279591985945</v>
@@ -4137,25 +4137,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>119.6357554697867</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>109.5550237362497</v>
       </c>
       <c r="F46" t="n">
-        <v>113.2381313864006</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>115.0462712619176</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>91.38593249656152</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>41.83083645072251</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>127.5182374348226</v>
+        <v>122.2579480617937</v>
       </c>
       <c r="U46" t="n">
         <v>230.1806682266223</v>
       </c>
       <c r="V46" t="n">
-        <v>221.4002043657592</v>
+        <v>221.4002043657593</v>
       </c>
       <c r="W46" t="n">
-        <v>226.5322846021003</v>
+        <v>226.5322846021004</v>
       </c>
       <c r="X46" t="n">
-        <v>186.2137402747994</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>172.7416583810089</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1030.690682153875</v>
+        <v>354.8693413315016</v>
       </c>
       <c r="C11" t="n">
-        <v>1030.690682153875</v>
+        <v>354.8693413315016</v>
       </c>
       <c r="D11" t="n">
-        <v>1030.690682153875</v>
+        <v>354.8693413315016</v>
       </c>
       <c r="E11" t="n">
-        <v>708.8530118170709</v>
+        <v>354.8693413315016</v>
       </c>
       <c r="F11" t="n">
-        <v>380.3251449170579</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="G11" t="n">
-        <v>226.6455237025255</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="H11" t="n">
         <v>26.34147443148862</v>
@@ -5041,19 +5041,19 @@
         <v>26.34147443148862</v>
       </c>
       <c r="J11" t="n">
-        <v>100.7841956225197</v>
+        <v>100.7841956225195</v>
       </c>
       <c r="K11" t="n">
-        <v>232.9036372927685</v>
+        <v>232.9036372927682</v>
       </c>
       <c r="L11" t="n">
-        <v>411.7547010373688</v>
+        <v>411.7547010373684</v>
       </c>
       <c r="M11" t="n">
-        <v>623.5870925287452</v>
+        <v>623.5870925287446</v>
       </c>
       <c r="N11" t="n">
-        <v>840.7157459718262</v>
+        <v>840.7157459718256</v>
       </c>
       <c r="O11" t="n">
         <v>1040.343395569186</v>
@@ -5074,19 +5074,19 @@
         <v>1195.107224892442</v>
       </c>
       <c r="U11" t="n">
-        <v>1030.690682153875</v>
+        <v>1195.107224892442</v>
       </c>
       <c r="V11" t="n">
-        <v>1030.690682153875</v>
+        <v>1195.107224892442</v>
       </c>
       <c r="W11" t="n">
-        <v>1030.690682153875</v>
+        <v>971.44432192186</v>
       </c>
       <c r="X11" t="n">
-        <v>1030.690682153875</v>
+        <v>663.303469237112</v>
       </c>
       <c r="Y11" t="n">
-        <v>1030.690682153875</v>
+        <v>354.8693413315016</v>
       </c>
     </row>
     <row r="12">
@@ -5096,19 +5096,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>248.3635085642521</v>
+        <v>525.8711440031506</v>
       </c>
       <c r="C12" t="n">
-        <v>114.3684373131978</v>
+        <v>478.7357190635335</v>
       </c>
       <c r="D12" t="n">
-        <v>89.97382467888977</v>
+        <v>361.8385612829259</v>
       </c>
       <c r="E12" t="n">
-        <v>61.98355381751725</v>
+        <v>241.3457452752539</v>
       </c>
       <c r="F12" t="n">
-        <v>45.52621914632133</v>
+        <v>132.3858654577585</v>
       </c>
       <c r="G12" t="n">
         <v>26.34147443148862</v>
@@ -5123,25 +5123,25 @@
         <v>63.05782117158954</v>
       </c>
       <c r="K12" t="n">
-        <v>157.4646098576827</v>
+        <v>192.4782795829531</v>
       </c>
       <c r="L12" t="n">
-        <v>366.7463743936569</v>
+        <v>338.1804866605889</v>
       </c>
       <c r="M12" t="n">
-        <v>692.7221204833286</v>
+        <v>516.047621600829</v>
       </c>
       <c r="N12" t="n">
-        <v>881.1323704161363</v>
+        <v>704.4578715336366</v>
       </c>
       <c r="O12" t="n">
-        <v>1044.491923119094</v>
+        <v>867.8174242365942</v>
       </c>
       <c r="P12" t="n">
-        <v>1167.772474367259</v>
+        <v>991.0979754847594</v>
       </c>
       <c r="Q12" t="n">
-        <v>1229.964983537592</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="R12" t="n">
         <v>1317.073721574431</v>
@@ -5150,22 +5150,22 @@
         <v>1226.650076721735</v>
       </c>
       <c r="T12" t="n">
-        <v>1071.120134860413</v>
+        <v>1163.622680006712</v>
       </c>
       <c r="U12" t="n">
-        <v>966.3340876751545</v>
+        <v>1058.836632821454</v>
       </c>
       <c r="V12" t="n">
-        <v>752.6225606681883</v>
+        <v>937.6276509607872</v>
       </c>
       <c r="W12" t="n">
-        <v>631.8919375508165</v>
+        <v>816.8970278434153</v>
       </c>
       <c r="X12" t="n">
-        <v>455.5659556897093</v>
+        <v>733.0735911286076</v>
       </c>
       <c r="Y12" t="n">
-        <v>388.6665411998388</v>
+        <v>666.1741766387372</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>389.2994027087676</v>
+        <v>436.4718892120808</v>
       </c>
       <c r="C13" t="n">
-        <v>310.7085754167836</v>
+        <v>357.8810619200968</v>
       </c>
       <c r="D13" t="n">
-        <v>243.7164758859931</v>
+        <v>290.8889623893063</v>
       </c>
       <c r="E13" t="n">
-        <v>175.3082059006121</v>
+        <v>222.4806924039253</v>
       </c>
       <c r="F13" t="n">
-        <v>103.1796251575029</v>
+        <v>150.352111660816</v>
       </c>
       <c r="G13" t="n">
         <v>76.39712700304321</v>
@@ -5226,25 +5226,25 @@
         <v>1317.073721574431</v>
       </c>
       <c r="S13" t="n">
-        <v>1237.00190819452</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="T13" t="n">
-        <v>1093.343394290981</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="U13" t="n">
-        <v>903.0910389617894</v>
+        <v>1177.693840177783</v>
       </c>
       <c r="V13" t="n">
-        <v>721.7078390476108</v>
+        <v>996.3106402636048</v>
       </c>
       <c r="W13" t="n">
-        <v>535.1407197027847</v>
+        <v>809.7435209187787</v>
       </c>
       <c r="X13" t="n">
-        <v>389.2994027087676</v>
+        <v>663.9022039247616</v>
       </c>
       <c r="Y13" t="n">
-        <v>389.2994027087676</v>
+        <v>531.6690504598257</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>354.8693413315016</v>
+        <v>655.9249047325591</v>
       </c>
       <c r="C14" t="n">
-        <v>354.8693413315016</v>
+        <v>338.3028591921286</v>
       </c>
       <c r="D14" t="n">
-        <v>354.8693413315016</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="E14" t="n">
-        <v>354.8693413315016</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="F14" t="n">
         <v>26.34147443148862</v>
@@ -5281,16 +5281,16 @@
         <v>100.7841956225195</v>
       </c>
       <c r="K14" t="n">
-        <v>232.9036372927682</v>
+        <v>232.9036372927683</v>
       </c>
       <c r="L14" t="n">
-        <v>411.7547010373684</v>
+        <v>411.7547010373686</v>
       </c>
       <c r="M14" t="n">
-        <v>623.5870925287446</v>
+        <v>623.587092528745</v>
       </c>
       <c r="N14" t="n">
-        <v>840.7157459718256</v>
+        <v>840.715745971826</v>
       </c>
       <c r="O14" t="n">
         <v>1040.343395569186</v>
@@ -5308,22 +5308,22 @@
         <v>1317.073721574431</v>
       </c>
       <c r="T14" t="n">
-        <v>1195.107224892442</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="U14" t="n">
-        <v>1030.690682153875</v>
+        <v>1282.077667156359</v>
       </c>
       <c r="V14" t="n">
-        <v>773.3556726366548</v>
+        <v>1282.077667156359</v>
       </c>
       <c r="W14" t="n">
-        <v>482.0979169181229</v>
+        <v>1282.077667156359</v>
       </c>
       <c r="X14" t="n">
-        <v>354.8693413315016</v>
+        <v>1282.077667156359</v>
       </c>
       <c r="Y14" t="n">
-        <v>354.8693413315016</v>
+        <v>973.643539250749</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>304.3341424569193</v>
+        <v>242.7206097293898</v>
       </c>
       <c r="C15" t="n">
-        <v>262.8416163521645</v>
+        <v>108.7255384783355</v>
       </c>
       <c r="D15" t="n">
-        <v>145.9444585715569</v>
+        <v>84.3309258440274</v>
       </c>
       <c r="E15" t="n">
-        <v>117.9541877101844</v>
+        <v>56.34065498265488</v>
       </c>
       <c r="F15" t="n">
-        <v>101.4968530389885</v>
+        <v>39.88332031145896</v>
       </c>
       <c r="G15" t="n">
-        <v>87.95500715901817</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="H15" t="n">
         <v>26.34147443148862</v>
       </c>
       <c r="I15" t="n">
-        <v>37.91884632369989</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="J15" t="n">
-        <v>318.3035970384341</v>
+        <v>63.05782117158955</v>
       </c>
       <c r="K15" t="n">
-        <v>412.7103857245273</v>
+        <v>389.0335672612613</v>
       </c>
       <c r="L15" t="n">
-        <v>558.4125928021631</v>
+        <v>534.735774338897</v>
       </c>
       <c r="M15" t="n">
-        <v>736.2797277424031</v>
+        <v>712.6029092791372</v>
       </c>
       <c r="N15" t="n">
-        <v>968.2411084529755</v>
+        <v>901.013159211945</v>
       </c>
       <c r="O15" t="n">
-        <v>1131.600661155933</v>
+        <v>1064.372711914903</v>
       </c>
       <c r="P15" t="n">
-        <v>1254.881212404098</v>
+        <v>1187.653263163068</v>
       </c>
       <c r="Q15" t="n">
         <v>1317.073721574431</v>
@@ -5387,22 +5387,22 @@
         <v>1317.073721574431</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.046324859409</v>
+        <v>1161.543779713109</v>
       </c>
       <c r="U15" t="n">
-        <v>1114.807266714121</v>
+        <v>964.2551873815512</v>
       </c>
       <c r="V15" t="n">
-        <v>901.0957397071548</v>
+        <v>750.543660374585</v>
       </c>
       <c r="W15" t="n">
-        <v>687.8625714434836</v>
+        <v>537.3104921109137</v>
       </c>
       <c r="X15" t="n">
-        <v>511.5365895823765</v>
+        <v>360.9845102498065</v>
       </c>
       <c r="Y15" t="n">
-        <v>352.1346299462065</v>
+        <v>290.5210972186769</v>
       </c>
     </row>
     <row r="16">
@@ -5436,25 +5436,25 @@
         <v>26.34147443148862</v>
       </c>
       <c r="J16" t="n">
-        <v>30.36245171438916</v>
+        <v>30.36245171438917</v>
       </c>
       <c r="K16" t="n">
-        <v>275.1977337230303</v>
+        <v>68.91754013731617</v>
       </c>
       <c r="L16" t="n">
-        <v>336.6468209214198</v>
+        <v>394.8932862269879</v>
       </c>
       <c r="M16" t="n">
-        <v>402.7558721950805</v>
+        <v>720.8690323166595</v>
       </c>
       <c r="N16" t="n">
-        <v>560.8396763435621</v>
+        <v>1046.844778406331</v>
       </c>
       <c r="O16" t="n">
-        <v>886.8154224332338</v>
+        <v>1273.986866112189</v>
       </c>
       <c r="P16" t="n">
-        <v>1186.47555938287</v>
+        <v>1312.749519588707</v>
       </c>
       <c r="Q16" t="n">
         <v>1317.073721574431</v>
@@ -5469,13 +5469,13 @@
         <v>1093.343394290981</v>
       </c>
       <c r="U16" t="n">
-        <v>903.0910389617894</v>
+        <v>1093.343394290981</v>
       </c>
       <c r="V16" t="n">
-        <v>721.7078390476108</v>
+        <v>996.3106402636048</v>
       </c>
       <c r="W16" t="n">
-        <v>663.9022039247616</v>
+        <v>809.7435209187787</v>
       </c>
       <c r="X16" t="n">
         <v>663.9022039247616</v>
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>853.0650992287506</v>
+        <v>765.9804307790993</v>
       </c>
       <c r="C17" t="n">
-        <v>853.0650992287506</v>
+        <v>765.9804307790993</v>
       </c>
       <c r="D17" t="n">
-        <v>541.1037144681105</v>
+        <v>765.9804307790993</v>
       </c>
       <c r="E17" t="n">
-        <v>541.1037144681105</v>
+        <v>444.1427604422955</v>
       </c>
       <c r="F17" t="n">
-        <v>541.1037144681105</v>
+        <v>115.6148935422825</v>
       </c>
       <c r="G17" t="n">
-        <v>226.6455237025255</v>
+        <v>115.6148935422825</v>
       </c>
       <c r="H17" t="n">
         <v>26.34147443148862</v>
@@ -5515,13 +5515,13 @@
         <v>26.34147443148862</v>
       </c>
       <c r="J17" t="n">
-        <v>100.7841956225195</v>
+        <v>100.7841956225193</v>
       </c>
       <c r="K17" t="n">
-        <v>232.9036372927682</v>
+        <v>232.903637292768</v>
       </c>
       <c r="L17" t="n">
-        <v>411.7547010373685</v>
+        <v>411.7547010373684</v>
       </c>
       <c r="M17" t="n">
         <v>623.5870925287447</v>
@@ -5536,31 +5536,31 @@
         <v>1196.748070603753</v>
       </c>
       <c r="Q17" t="n">
-        <v>1294.691505550546</v>
+        <v>1294.691505550547</v>
       </c>
       <c r="R17" t="n">
         <v>1317.073721574431</v>
       </c>
       <c r="S17" t="n">
-        <v>1317.073721574431</v>
+        <v>1314.573196014851</v>
       </c>
       <c r="T17" t="n">
-        <v>1317.073721574431</v>
+        <v>1314.573196014851</v>
       </c>
       <c r="U17" t="n">
-        <v>1317.073721574431</v>
+        <v>1314.573196014851</v>
       </c>
       <c r="V17" t="n">
-        <v>1170.78373374694</v>
+        <v>1057.238186497631</v>
       </c>
       <c r="W17" t="n">
-        <v>1170.78373374694</v>
+        <v>765.9804307790993</v>
       </c>
       <c r="X17" t="n">
-        <v>1170.78373374694</v>
+        <v>765.9804307790993</v>
       </c>
       <c r="Y17" t="n">
-        <v>1170.78373374694</v>
+        <v>765.9804307790993</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>155.8609634179524</v>
+        <v>523.7922437095473</v>
       </c>
       <c r="C18" t="n">
-        <v>108.7255384783355</v>
+        <v>389.797172458493</v>
       </c>
       <c r="D18" t="n">
-        <v>84.3309258440274</v>
+        <v>272.9000146778854</v>
       </c>
       <c r="E18" t="n">
-        <v>56.34065498265488</v>
+        <v>152.4071986702134</v>
       </c>
       <c r="F18" t="n">
-        <v>39.88332031145896</v>
+        <v>43.44731885271796</v>
       </c>
       <c r="G18" t="n">
-        <v>26.34147443148862</v>
+        <v>29.90547297274762</v>
       </c>
       <c r="H18" t="n">
         <v>26.34147443148862</v>
       </c>
       <c r="I18" t="n">
-        <v>26.34147443148862</v>
+        <v>37.9188463236999</v>
       </c>
       <c r="J18" t="n">
-        <v>63.05782117158953</v>
+        <v>318.3035970384341</v>
       </c>
       <c r="K18" t="n">
-        <v>318.6960203454278</v>
+        <v>412.7103857245273</v>
       </c>
       <c r="L18" t="n">
-        <v>464.3982274230636</v>
+        <v>558.4125928021631</v>
       </c>
       <c r="M18" t="n">
-        <v>642.2653623633037</v>
+        <v>736.2797277424032</v>
       </c>
       <c r="N18" t="n">
-        <v>968.2411084529753</v>
+        <v>924.689977675211</v>
       </c>
       <c r="O18" t="n">
-        <v>1131.600661155933</v>
+        <v>1088.049530378169</v>
       </c>
       <c r="P18" t="n">
-        <v>1254.881212404098</v>
+        <v>1211.330081626334</v>
       </c>
       <c r="Q18" t="n">
-        <v>1317.073721574431</v>
+        <v>1273.522590796667</v>
       </c>
       <c r="R18" t="n">
         <v>1317.073721574431</v>
       </c>
       <c r="S18" t="n">
-        <v>1226.650076721735</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="T18" t="n">
-        <v>1071.120134860413</v>
+        <v>1254.046324859409</v>
       </c>
       <c r="U18" t="n">
-        <v>873.8315425288547</v>
+        <v>1149.26027767415</v>
       </c>
       <c r="V18" t="n">
-        <v>752.622560668188</v>
+        <v>1028.051295813483</v>
       </c>
       <c r="W18" t="n">
-        <v>631.8919375508162</v>
+        <v>907.3206726961116</v>
       </c>
       <c r="X18" t="n">
-        <v>455.565955689709</v>
+        <v>823.4972359813039</v>
       </c>
       <c r="Y18" t="n">
-        <v>296.1639960535391</v>
+        <v>664.0952763451339</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>161.8690879960867</v>
+        <v>387.7822183700157</v>
       </c>
       <c r="C19" t="n">
-        <v>161.8690879960867</v>
+        <v>309.1913910780317</v>
       </c>
       <c r="D19" t="n">
-        <v>94.87698846529619</v>
+        <v>242.1992915472412</v>
       </c>
       <c r="E19" t="n">
-        <v>26.46871847991515</v>
+        <v>173.7910215618602</v>
       </c>
       <c r="F19" t="n">
-        <v>26.46871847991515</v>
+        <v>101.6624408187509</v>
       </c>
       <c r="G19" t="n">
-        <v>26.46871847991515</v>
+        <v>27.70745616097813</v>
       </c>
       <c r="H19" t="n">
         <v>26.34147443148862</v>
@@ -5673,19 +5673,19 @@
         <v>26.34147443148862</v>
       </c>
       <c r="J19" t="n">
-        <v>30.36245171438916</v>
+        <v>30.36245171438917</v>
       </c>
       <c r="K19" t="n">
-        <v>275.1977337230303</v>
+        <v>68.91754013731617</v>
       </c>
       <c r="L19" t="n">
-        <v>601.173479812702</v>
+        <v>394.8932862269879</v>
       </c>
       <c r="M19" t="n">
-        <v>927.1492259023737</v>
+        <v>622.0353739328457</v>
       </c>
       <c r="N19" t="n">
-        <v>1219.663818549917</v>
+        <v>948.0111200225174</v>
       </c>
       <c r="O19" t="n">
         <v>1273.986866112189</v>
@@ -5700,25 +5700,25 @@
         <v>1317.073721574431</v>
       </c>
       <c r="S19" t="n">
-        <v>1237.001908194519</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="T19" t="n">
-        <v>1093.343394290981</v>
+        <v>1173.415207670893</v>
       </c>
       <c r="U19" t="n">
-        <v>903.0910389617892</v>
+        <v>983.1628523417011</v>
       </c>
       <c r="V19" t="n">
-        <v>721.7078390476106</v>
+        <v>801.7796524275225</v>
       </c>
       <c r="W19" t="n">
-        <v>535.1407197027845</v>
+        <v>615.2125330826964</v>
       </c>
       <c r="X19" t="n">
-        <v>389.2994027087674</v>
+        <v>615.2125330826964</v>
       </c>
       <c r="Y19" t="n">
-        <v>257.0662492438316</v>
+        <v>482.9793796177606</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1303.12658719453</v>
+        <v>999.355087056241</v>
       </c>
       <c r="C20" t="n">
-        <v>1303.12658719453</v>
+        <v>681.7330415158106</v>
       </c>
       <c r="D20" t="n">
-        <v>991.1652024338903</v>
+        <v>681.7330415158106</v>
       </c>
       <c r="E20" t="n">
-        <v>669.3275320970865</v>
+        <v>681.7330415158106</v>
       </c>
       <c r="F20" t="n">
-        <v>340.7996651970736</v>
+        <v>353.2051746157976</v>
       </c>
       <c r="G20" t="n">
-        <v>26.34147443148861</v>
+        <v>226.6455237025255</v>
       </c>
       <c r="H20" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="I20" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="J20" t="n">
-        <v>100.7841956225191</v>
+        <v>100.7841956225195</v>
       </c>
       <c r="K20" t="n">
-        <v>232.9036372927678</v>
+        <v>232.9036372927682</v>
       </c>
       <c r="L20" t="n">
-        <v>411.7547010373681</v>
+        <v>411.7547010373686</v>
       </c>
       <c r="M20" t="n">
-        <v>623.5870925287444</v>
+        <v>623.587092528745</v>
       </c>
       <c r="N20" t="n">
-        <v>840.7157459718254</v>
+        <v>840.715745971826</v>
       </c>
       <c r="O20" t="n">
         <v>1040.343395569186</v>
       </c>
       <c r="P20" t="n">
-        <v>1196.748070603752</v>
+        <v>1196.748070603753</v>
       </c>
       <c r="Q20" t="n">
-        <v>1294.691505550546</v>
+        <v>1294.691505550547</v>
       </c>
       <c r="R20" t="n">
         <v>1317.073721574431</v>
       </c>
       <c r="S20" t="n">
-        <v>1314.573196014851</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="T20" t="n">
-        <v>1303.12658719453</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="U20" t="n">
-        <v>1303.12658719453</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="V20" t="n">
-        <v>1303.12658719453</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="W20" t="n">
-        <v>1303.12658719453</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="X20" t="n">
-        <v>1303.12658719453</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="Y20" t="n">
-        <v>1303.12658719453</v>
+        <v>1317.073721574431</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>489.3392327495183</v>
+        <v>431.2896985632475</v>
       </c>
       <c r="C21" t="n">
-        <v>355.344161498464</v>
+        <v>297.2946273121932</v>
       </c>
       <c r="D21" t="n">
-        <v>238.4470037178564</v>
+        <v>272.9000146778851</v>
       </c>
       <c r="E21" t="n">
-        <v>210.4567328564839</v>
+        <v>152.4071986702131</v>
       </c>
       <c r="F21" t="n">
-        <v>101.4968530389885</v>
+        <v>135.9498639990172</v>
       </c>
       <c r="G21" t="n">
-        <v>87.95500715901815</v>
+        <v>87.95500715901817</v>
       </c>
       <c r="H21" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="I21" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="J21" t="n">
-        <v>63.05782117158952</v>
+        <v>98.07149089685939</v>
       </c>
       <c r="K21" t="n">
-        <v>157.4646098576827</v>
+        <v>192.4782795829526</v>
       </c>
       <c r="L21" t="n">
-        <v>303.1668169353185</v>
+        <v>338.1804866605884</v>
       </c>
       <c r="M21" t="n">
-        <v>629.1425630249901</v>
+        <v>516.0476216008285</v>
       </c>
       <c r="N21" t="n">
-        <v>881.1323704161358</v>
+        <v>704.4578715336363</v>
       </c>
       <c r="O21" t="n">
-        <v>1044.491923119093</v>
+        <v>867.8174242365939</v>
       </c>
       <c r="P21" t="n">
-        <v>1167.772474367259</v>
+        <v>991.0979754847592</v>
       </c>
       <c r="Q21" t="n">
-        <v>1229.964983537591</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="R21" t="n">
         <v>1317.073721574431</v>
       </c>
       <c r="S21" t="n">
-        <v>1226.650076721734</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="T21" t="n">
-        <v>1163.622680006712</v>
+        <v>1254.046324859409</v>
       </c>
       <c r="U21" t="n">
-        <v>1058.836632821453</v>
+        <v>1056.75773252785</v>
       </c>
       <c r="V21" t="n">
-        <v>937.6276509607867</v>
+        <v>843.0462055208841</v>
       </c>
       <c r="W21" t="n">
-        <v>816.8970278434149</v>
+        <v>722.3155824035123</v>
       </c>
       <c r="X21" t="n">
-        <v>733.0735911286072</v>
+        <v>638.4921456887046</v>
       </c>
       <c r="Y21" t="n">
-        <v>573.6716314924372</v>
+        <v>571.5927311988341</v>
       </c>
     </row>
     <row r="22">
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>436.4718892120808</v>
+        <v>161.8690879960867</v>
       </c>
       <c r="C22" t="n">
-        <v>357.8810619200968</v>
+        <v>150.352111660816</v>
       </c>
       <c r="D22" t="n">
-        <v>290.8889623893063</v>
+        <v>150.352111660816</v>
       </c>
       <c r="E22" t="n">
-        <v>222.4806924039253</v>
+        <v>150.352111660816</v>
       </c>
       <c r="F22" t="n">
         <v>150.352111660816</v>
       </c>
       <c r="G22" t="n">
-        <v>76.3971270030432</v>
+        <v>76.39712700304321</v>
       </c>
       <c r="H22" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="I22" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148862</v>
       </c>
       <c r="J22" t="n">
-        <v>95.36381534572553</v>
+        <v>95.36381534572554</v>
       </c>
       <c r="K22" t="n">
         <v>133.9189037686525</v>
       </c>
       <c r="L22" t="n">
-        <v>429.6523624533474</v>
+        <v>195.367990967042</v>
       </c>
       <c r="M22" t="n">
-        <v>495.7614137270082</v>
+        <v>521.3437370567136</v>
       </c>
       <c r="N22" t="n">
-        <v>821.7371598166798</v>
+        <v>847.3194831463852</v>
       </c>
       <c r="O22" t="n">
-        <v>1147.712905906351</v>
+        <v>1173.295229236057</v>
       </c>
       <c r="P22" t="n">
-        <v>1186.47555938287</v>
+        <v>1312.749519588707</v>
       </c>
       <c r="Q22" t="n">
         <v>1317.073721574431</v>
@@ -5943,19 +5943,19 @@
         <v>1093.343394290981</v>
       </c>
       <c r="U22" t="n">
-        <v>903.091038961789</v>
+        <v>903.0910389617892</v>
       </c>
       <c r="V22" t="n">
-        <v>721.7078390476104</v>
+        <v>721.7078390476106</v>
       </c>
       <c r="W22" t="n">
-        <v>721.7078390476104</v>
+        <v>535.1407197027845</v>
       </c>
       <c r="X22" t="n">
-        <v>663.9022039247616</v>
+        <v>389.2994027087674</v>
       </c>
       <c r="Y22" t="n">
-        <v>531.6690504598257</v>
+        <v>257.0662492438316</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1459.40191548931</v>
+        <v>895.973055799612</v>
       </c>
       <c r="C23" t="n">
-        <v>1217.810726136416</v>
+        <v>895.973055799612</v>
       </c>
       <c r="D23" t="n">
-        <v>1217.810726136416</v>
+        <v>895.973055799612</v>
       </c>
       <c r="E23" t="n">
         <v>895.973055799612</v>
@@ -5989,52 +5989,52 @@
         <v>52.68294886297725</v>
       </c>
       <c r="J23" t="n">
-        <v>127.1256700540081</v>
+        <v>453.9014969417373</v>
       </c>
       <c r="K23" t="n">
-        <v>675.0354194429705</v>
+        <v>586.020938611986</v>
       </c>
       <c r="L23" t="n">
-        <v>853.8864831875708</v>
+        <v>764.8720023565863</v>
       </c>
       <c r="M23" t="n">
-        <v>1505.837975366914</v>
+        <v>1416.82349453593</v>
       </c>
       <c r="N23" t="n">
-        <v>2157.789467546258</v>
+        <v>2030.793800470116</v>
       </c>
       <c r="O23" t="n">
-        <v>2357.417117143618</v>
+        <v>2230.421450067477</v>
       </c>
       <c r="P23" t="n">
-        <v>2513.821792178184</v>
+        <v>2386.826125102043</v>
       </c>
       <c r="Q23" t="n">
-        <v>2611.765227124978</v>
+        <v>2484.769560048837</v>
       </c>
       <c r="R23" t="n">
         <v>2634.147443148862</v>
       </c>
       <c r="S23" t="n">
-        <v>2634.147443148862</v>
+        <v>2631.646917589282</v>
       </c>
       <c r="T23" t="n">
-        <v>2634.147443148862</v>
+        <v>2509.680420907293</v>
       </c>
       <c r="U23" t="n">
-        <v>2634.147443148862</v>
+        <v>2345.263878168726</v>
       </c>
       <c r="V23" t="n">
-        <v>2376.812433631642</v>
+        <v>2087.928868651506</v>
       </c>
       <c r="W23" t="n">
-        <v>2085.55467791311</v>
+        <v>1830.26667090816</v>
       </c>
       <c r="X23" t="n">
-        <v>2085.55467791311</v>
+        <v>1522.125818223412</v>
       </c>
       <c r="Y23" t="n">
-        <v>1777.1205500075</v>
+        <v>1213.691690317802</v>
       </c>
     </row>
     <row r="24">
@@ -6071,22 +6071,22 @@
         <v>333.0676995777114</v>
       </c>
       <c r="K24" t="n">
-        <v>427.4744882638046</v>
+        <v>693.012545809931</v>
       </c>
       <c r="L24" t="n">
-        <v>573.1766953414403</v>
+        <v>838.7147528875668</v>
       </c>
       <c r="M24" t="n">
-        <v>751.0438302816804</v>
+        <v>1016.581887827807</v>
       </c>
       <c r="N24" t="n">
-        <v>939.454080214488</v>
+        <v>1204.992137760615</v>
       </c>
       <c r="O24" t="n">
-        <v>1245.650906536168</v>
+        <v>1368.351690463572</v>
       </c>
       <c r="P24" t="n">
-        <v>1897.602398715511</v>
+        <v>1491.632241711738</v>
       </c>
       <c r="Q24" t="n">
         <v>1959.794907885844</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>685.1138505782134</v>
+        <v>1017.828634521366</v>
       </c>
       <c r="C25" t="n">
-        <v>606.5230232862293</v>
+        <v>846.7352620830829</v>
       </c>
       <c r="D25" t="n">
-        <v>539.5309237554388</v>
+        <v>687.2406174059929</v>
       </c>
       <c r="E25" t="n">
-        <v>433.8272571280129</v>
+        <v>526.3298022743124</v>
       </c>
       <c r="F25" t="n">
-        <v>269.1961312386042</v>
+        <v>361.6986763849036</v>
       </c>
       <c r="G25" t="n">
         <v>195.2411465808313</v>
@@ -6153,7 +6153,7 @@
         <v>366.5405717858553</v>
       </c>
       <c r="L25" t="n">
-        <v>741.9687702192678</v>
+        <v>741.9687702192679</v>
       </c>
       <c r="M25" t="n">
         <v>1153.044171007214</v>
@@ -6174,25 +6174,25 @@
         <v>2302.831209888055</v>
       </c>
       <c r="S25" t="n">
-        <v>2130.256851361844</v>
+        <v>2222.759396508144</v>
       </c>
       <c r="T25" t="n">
-        <v>1894.095792312006</v>
+        <v>2079.100882604605</v>
       </c>
       <c r="U25" t="n">
-        <v>1611.340891836515</v>
+        <v>1888.848527275414</v>
       </c>
       <c r="V25" t="n">
-        <v>1337.455146776037</v>
+        <v>1707.465327361235</v>
       </c>
       <c r="W25" t="n">
-        <v>1150.888027431211</v>
+        <v>1520.898208016409</v>
       </c>
       <c r="X25" t="n">
-        <v>912.5441652908942</v>
+        <v>1375.056891022392</v>
       </c>
       <c r="Y25" t="n">
-        <v>780.3110118259583</v>
+        <v>1205.528340915411</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>358.1629701926188</v>
+        <v>1962.224186936329</v>
       </c>
       <c r="C26" t="n">
-        <v>358.1629701926188</v>
+        <v>1581.575325441922</v>
       </c>
       <c r="D26" t="n">
-        <v>358.1629701926188</v>
+        <v>1206.587124727306</v>
       </c>
       <c r="E26" t="n">
-        <v>358.1629701926188</v>
+        <v>821.7226384365268</v>
       </c>
       <c r="F26" t="n">
-        <v>358.1629701926188</v>
+        <v>430.1679555825381</v>
       </c>
       <c r="G26" t="n">
-        <v>316.01381408799</v>
+        <v>52.68294886297725</v>
       </c>
       <c r="H26" t="n">
         <v>52.68294886297725</v>
@@ -6229,49 +6229,49 @@
         <v>127.1256700540081</v>
       </c>
       <c r="K26" t="n">
-        <v>259.2451117242568</v>
+        <v>779.0771622333515</v>
       </c>
       <c r="L26" t="n">
-        <v>911.1966039036002</v>
+        <v>1431.028654412695</v>
       </c>
       <c r="M26" t="n">
-        <v>1563.148096082944</v>
+        <v>1813.665147027035</v>
       </c>
       <c r="N26" t="n">
-        <v>2157.789467546258</v>
+        <v>2030.793800470116</v>
       </c>
       <c r="O26" t="n">
-        <v>2357.417117143618</v>
+        <v>2230.421450067477</v>
       </c>
       <c r="P26" t="n">
-        <v>2513.821792178184</v>
+        <v>2386.826125102043</v>
       </c>
       <c r="Q26" t="n">
-        <v>2611.765227124978</v>
+        <v>2484.769560048837</v>
       </c>
       <c r="R26" t="n">
         <v>2634.147443148862</v>
       </c>
       <c r="S26" t="n">
-        <v>2568.620101635306</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="T26" t="n">
-        <v>2383.626788999341</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="U26" t="n">
-        <v>2156.183430306798</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="V26" t="n">
-        <v>1835.821604835603</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="W26" t="n">
-        <v>1481.537033163095</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="X26" t="n">
-        <v>1110.369364524371</v>
+        <v>2342.969637408494</v>
       </c>
       <c r="Y26" t="n">
-        <v>738.9084206647847</v>
+        <v>2342.969637408494</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>52.68294886297725</v>
       </c>
       <c r="I27" t="n">
-        <v>52.68294886297725</v>
+        <v>64.26032075518852</v>
       </c>
       <c r="J27" t="n">
-        <v>89.39929560307816</v>
+        <v>344.6450714699227</v>
       </c>
       <c r="K27" t="n">
-        <v>183.8060842891713</v>
+        <v>439.0518601560159</v>
       </c>
       <c r="L27" t="n">
-        <v>329.5082913668071</v>
+        <v>584.7540672336517</v>
       </c>
       <c r="M27" t="n">
-        <v>507.3754263070472</v>
+        <v>762.6212021738918</v>
       </c>
       <c r="N27" t="n">
-        <v>695.7856762398549</v>
+        <v>951.0314521066996</v>
       </c>
       <c r="O27" t="n">
-        <v>859.1452289428124</v>
+        <v>1114.391004809657</v>
       </c>
       <c r="P27" t="n">
         <v>1491.632241711738</v>
@@ -6363,7 +6363,7 @@
         <v>904.0010753213998</v>
       </c>
       <c r="C28" t="n">
-        <v>762.3834320754401</v>
+        <v>762.3834320754399</v>
       </c>
       <c r="D28" t="n">
         <v>632.3645165906737</v>
@@ -6378,7 +6378,7 @@
         <v>228.7922333424834</v>
       </c>
       <c r="H28" t="n">
-        <v>115.7097648169531</v>
+        <v>115.709764816953</v>
       </c>
       <c r="I28" t="n">
         <v>52.68294886297725</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1588.333377366435</v>
+        <v>1577.359700645549</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.333377366435</v>
+        <v>1196.710839151143</v>
       </c>
       <c r="D29" t="n">
-        <v>1469.917989952319</v>
+        <v>821.7226384365268</v>
       </c>
       <c r="E29" t="n">
-        <v>1085.05350366154</v>
+        <v>821.7226384365268</v>
       </c>
       <c r="F29" t="n">
-        <v>693.4988208075508</v>
+        <v>430.1679555825381</v>
       </c>
       <c r="G29" t="n">
-        <v>316.01381408799</v>
+        <v>52.68294886297725</v>
       </c>
       <c r="H29" t="n">
         <v>52.68294886297725</v>
@@ -6463,22 +6463,22 @@
         <v>52.68294886297725</v>
       </c>
       <c r="J29" t="n">
-        <v>127.1256700540081</v>
+        <v>453.9014969417373</v>
       </c>
       <c r="K29" t="n">
-        <v>259.2451117242568</v>
+        <v>1105.852989121081</v>
       </c>
       <c r="L29" t="n">
-        <v>853.8864831875708</v>
+        <v>1284.704052865681</v>
       </c>
       <c r="M29" t="n">
-        <v>1505.837975366914</v>
+        <v>1496.536444357057</v>
       </c>
       <c r="N29" t="n">
-        <v>2157.789467546258</v>
+        <v>1713.665097800138</v>
       </c>
       <c r="O29" t="n">
-        <v>2357.417117143618</v>
+        <v>1913.292747397499</v>
       </c>
       <c r="P29" t="n">
         <v>2513.821792178184</v>
@@ -6499,16 +6499,16 @@
         <v>2634.147443148862</v>
       </c>
       <c r="V29" t="n">
-        <v>2313.785617677667</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="W29" t="n">
-        <v>1959.501046005159</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="X29" t="n">
-        <v>1588.333377366435</v>
+        <v>2262.979774510139</v>
       </c>
       <c r="Y29" t="n">
-        <v>1588.333377366435</v>
+        <v>1958.105151117715</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>52.68294886297725</v>
       </c>
       <c r="J30" t="n">
-        <v>89.39929560307816</v>
+        <v>89.39929560307817</v>
       </c>
       <c r="K30" t="n">
-        <v>183.8060842891713</v>
+        <v>694.8798655112394</v>
       </c>
       <c r="L30" t="n">
-        <v>329.5082913668071</v>
+        <v>840.5820725888751</v>
       </c>
       <c r="M30" t="n">
-        <v>507.3754263070472</v>
+        <v>1018.449207529115</v>
       </c>
       <c r="N30" t="n">
-        <v>1122.370355288003</v>
+        <v>1206.859457461923</v>
       </c>
       <c r="O30" t="n">
-        <v>1774.321847467346</v>
+        <v>1370.219010164881</v>
       </c>
       <c r="P30" t="n">
-        <v>1897.602398715511</v>
+        <v>1493.499561413046</v>
       </c>
       <c r="Q30" t="n">
-        <v>1959.794907885844</v>
+        <v>1961.662227587153</v>
       </c>
       <c r="R30" t="n">
         <v>2046.903645922683</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>904.0010753214</v>
+        <v>904.0010753214002</v>
       </c>
       <c r="C31" t="n">
-        <v>762.3834320754402</v>
+        <v>762.3834320754404</v>
       </c>
       <c r="D31" t="n">
-        <v>632.3645165906739</v>
+        <v>632.364516590674</v>
       </c>
       <c r="E31" t="n">
         <v>500.9294306513171</v>
       </c>
       <c r="F31" t="n">
-        <v>365.774033954232</v>
+        <v>365.7740339542321</v>
       </c>
       <c r="G31" t="n">
-        <v>228.7922333424834</v>
+        <v>228.7922333424835</v>
       </c>
       <c r="H31" t="n">
         <v>115.7097648169531</v>
@@ -6621,13 +6621,13 @@
         <v>52.68294886297725</v>
       </c>
       <c r="J31" t="n">
-        <v>150.5944519586105</v>
+        <v>150.5944519586106</v>
       </c>
       <c r="K31" t="n">
-        <v>424.3188961486481</v>
+        <v>424.3188961486482</v>
       </c>
       <c r="L31" t="n">
-        <v>828.636256763457</v>
+        <v>828.6362567634571</v>
       </c>
       <c r="M31" t="n">
         <v>1268.6008197328</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1096.353030309226</v>
+        <v>1729.503120515157</v>
       </c>
       <c r="C32" t="n">
-        <v>1096.353030309226</v>
+        <v>1399.103434014805</v>
       </c>
       <c r="D32" t="n">
-        <v>771.614004588665</v>
+        <v>1074.364408294244</v>
       </c>
       <c r="E32" t="n">
-        <v>593.0004708194417</v>
+        <v>739.7490969975189</v>
       </c>
       <c r="F32" t="n">
         <v>593.0004708194417</v>
@@ -6700,16 +6700,16 @@
         <v>52.68294886297725</v>
       </c>
       <c r="J32" t="n">
-        <v>127.1256700540081</v>
+        <v>453.9014969417373</v>
       </c>
       <c r="K32" t="n">
-        <v>259.2451117242568</v>
+        <v>1105.852989121081</v>
       </c>
       <c r="L32" t="n">
-        <v>853.8864831875708</v>
+        <v>1728.8284226118</v>
       </c>
       <c r="M32" t="n">
-        <v>1505.837975366914</v>
+        <v>1940.660814103177</v>
       </c>
       <c r="N32" t="n">
         <v>2157.789467546258</v>
@@ -6730,22 +6730,22 @@
         <v>2634.147443148862</v>
       </c>
       <c r="T32" t="n">
-        <v>2499.403305506952</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="U32" t="n">
-        <v>2322.209121808463</v>
+        <v>2634.147443148862</v>
       </c>
       <c r="V32" t="n">
-        <v>2052.096471331322</v>
+        <v>2364.034792671721</v>
       </c>
       <c r="W32" t="n">
-        <v>1748.061074652869</v>
+        <v>2059.999395993268</v>
       </c>
       <c r="X32" t="n">
-        <v>1748.061074652869</v>
+        <v>2059.999395993268</v>
       </c>
       <c r="Y32" t="n">
-        <v>1426.849305787337</v>
+        <v>2059.999395993268</v>
       </c>
     </row>
     <row r="33">
@@ -6776,22 +6776,22 @@
         <v>52.68294886297725</v>
       </c>
       <c r="I33" t="n">
-        <v>52.68294886297725</v>
+        <v>64.26032075518852</v>
       </c>
       <c r="J33" t="n">
-        <v>89.39929560307816</v>
+        <v>344.6450714699227</v>
       </c>
       <c r="K33" t="n">
-        <v>183.8060842891713</v>
+        <v>950.1256413780839</v>
       </c>
       <c r="L33" t="n">
-        <v>329.5082913668071</v>
+        <v>1095.82784845572</v>
       </c>
       <c r="M33" t="n">
-        <v>981.4597835461504</v>
+        <v>1273.69498339596</v>
       </c>
       <c r="N33" t="n">
-        <v>1169.870033478958</v>
+        <v>1610.962294764388</v>
       </c>
       <c r="O33" t="n">
         <v>1774.321847467346</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>631.9817545493964</v>
+        <v>776.1286243610591</v>
       </c>
       <c r="C34" t="n">
-        <v>540.6132862974912</v>
+        <v>684.7601561091539</v>
       </c>
       <c r="D34" t="n">
-        <v>460.8435458067794</v>
+        <v>604.9904156184421</v>
       </c>
       <c r="E34" t="n">
-        <v>379.6576348614772</v>
+        <v>444.0796004867615</v>
       </c>
       <c r="F34" t="n">
-        <v>294.7514131584467</v>
+        <v>359.173378783731</v>
       </c>
       <c r="G34" t="n">
-        <v>208.0187875407526</v>
+        <v>192.7158489796587</v>
       </c>
       <c r="H34" t="n">
-        <v>65.4605898228985</v>
+        <v>129.8825554481829</v>
       </c>
       <c r="I34" t="n">
         <v>52.68294886297725</v>
@@ -6864,7 +6864,7 @@
         <v>366.5405717858553</v>
       </c>
       <c r="L34" t="n">
-        <v>741.9687702192678</v>
+        <v>741.9687702192679</v>
       </c>
       <c r="M34" t="n">
         <v>1153.044171007214</v>
@@ -6885,25 +6885,25 @@
         <v>2352.454002364286</v>
       </c>
       <c r="S34" t="n">
-        <v>2195.182582399169</v>
+        <v>2179.879643838075</v>
       </c>
       <c r="T34" t="n">
-        <v>2038.746427535709</v>
+        <v>2023.443488974616</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.991527060218</v>
+        <v>1740.688588499124</v>
       </c>
       <c r="V34" t="n">
-        <v>1482.10578199974</v>
+        <v>1466.802843438646</v>
       </c>
       <c r="W34" t="n">
-        <v>1203.036117508615</v>
+        <v>1267.458083133899</v>
       </c>
       <c r="X34" t="n">
-        <v>964.6922553682979</v>
+        <v>1108.839125179961</v>
       </c>
       <c r="Y34" t="n">
-        <v>739.9565567570626</v>
+        <v>884.1034265687252</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>899.2533705229104</v>
+        <v>533.5702272346305</v>
       </c>
       <c r="C35" t="n">
-        <v>899.2533705229104</v>
+        <v>351.0805001520498</v>
       </c>
       <c r="D35" t="n">
-        <v>899.2533705229104</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="E35" t="n">
-        <v>899.2533705229104</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="F35" t="n">
-        <v>566.658996387953</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="G35" t="n">
-        <v>239.4231646624468</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="H35" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I35" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="J35" t="n">
-        <v>100.7841956225194</v>
+        <v>100.7841956225195</v>
       </c>
       <c r="K35" t="n">
         <v>232.9036372927682</v>
       </c>
       <c r="L35" t="n">
-        <v>411.7547010373685</v>
+        <v>411.7547010373686</v>
       </c>
       <c r="M35" t="n">
-        <v>623.5870925287447</v>
+        <v>623.587092528745</v>
       </c>
       <c r="N35" t="n">
-        <v>840.7157459718258</v>
+        <v>840.715745971826</v>
       </c>
       <c r="O35" t="n">
         <v>1040.343395569186</v>
@@ -6958,31 +6958,31 @@
         <v>1196.748070603753</v>
       </c>
       <c r="Q35" t="n">
-        <v>1294.691505550546</v>
+        <v>1294.691505550547</v>
       </c>
       <c r="R35" t="n">
         <v>1317.073721574431</v>
       </c>
       <c r="S35" t="n">
-        <v>1301.795555054929</v>
+        <v>1301.79555505493</v>
       </c>
       <c r="T35" t="n">
-        <v>1167.051417413019</v>
+        <v>1301.79555505493</v>
       </c>
       <c r="U35" t="n">
-        <v>989.8572337145301</v>
+        <v>1124.601371356441</v>
       </c>
       <c r="V35" t="n">
-        <v>899.2533705229104</v>
+        <v>854.4887208792996</v>
       </c>
       <c r="W35" t="n">
-        <v>899.2533705229104</v>
+        <v>854.4887208792996</v>
       </c>
       <c r="X35" t="n">
-        <v>899.2533705229104</v>
+        <v>533.5702272346305</v>
       </c>
       <c r="Y35" t="n">
-        <v>899.2533705229104</v>
+        <v>533.5702272346305</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>293.8311735690747</v>
+        <v>533.0058861282096</v>
       </c>
       <c r="C36" t="n">
-        <v>239.5610065043987</v>
+        <v>399.0108148771552</v>
       </c>
       <c r="D36" t="n">
-        <v>202.3887529101694</v>
+        <v>282.1136570965476</v>
       </c>
       <c r="E36" t="n">
         <v>161.6208410888756</v>
       </c>
       <c r="F36" t="n">
-        <v>132.3858654577585</v>
+        <v>52.66096127138022</v>
       </c>
       <c r="G36" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="H36" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I36" t="n">
-        <v>37.91884632369988</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="J36" t="n">
-        <v>74.63519306380078</v>
+        <v>63.05782117158955</v>
       </c>
       <c r="K36" t="n">
-        <v>169.041981749894</v>
+        <v>192.478279582953</v>
       </c>
       <c r="L36" t="n">
-        <v>314.7441888275297</v>
+        <v>338.1804866605888</v>
       </c>
       <c r="M36" t="n">
-        <v>492.6113237677698</v>
+        <v>516.047621600829</v>
       </c>
       <c r="N36" t="n">
-        <v>681.0215737005775</v>
+        <v>704.4578715336368</v>
       </c>
       <c r="O36" t="n">
-        <v>867.817424236594</v>
+        <v>867.8174242365943</v>
       </c>
       <c r="P36" t="n">
-        <v>991.0979754847592</v>
+        <v>991.0979754847597</v>
       </c>
       <c r="Q36" t="n">
         <v>1317.073721574431</v>
@@ -7043,25 +7043,25 @@
         <v>1317.073721574431</v>
       </c>
       <c r="S36" t="n">
-        <v>1226.650076721735</v>
+        <v>1306.374980908113</v>
       </c>
       <c r="T36" t="n">
-        <v>1071.120134860413</v>
+        <v>1230.56994323317</v>
       </c>
       <c r="U36" t="n">
-        <v>877.907226227063</v>
+        <v>1113.00625508799</v>
       </c>
       <c r="V36" t="n">
-        <v>743.920603406475</v>
+        <v>979.019632267402</v>
       </c>
       <c r="W36" t="n">
-        <v>610.412339329182</v>
+        <v>845.511368190109</v>
       </c>
       <c r="X36" t="n">
-        <v>513.8112616544531</v>
+        <v>748.9102905153801</v>
       </c>
       <c r="Y36" t="n">
-        <v>434.1342062046614</v>
+        <v>669.2332350655884</v>
       </c>
     </row>
     <row r="37">
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>450.3044414401325</v>
+        <v>446.1456354408178</v>
       </c>
       <c r="C37" t="n">
-        <v>358.9359731882272</v>
+        <v>354.7771671889125</v>
       </c>
       <c r="D37" t="n">
-        <v>279.1662326975155</v>
+        <v>354.7771671889125</v>
       </c>
       <c r="E37" t="n">
-        <v>197.9803217522132</v>
+        <v>273.5912562436102</v>
       </c>
       <c r="F37" t="n">
-        <v>113.0741000491827</v>
+        <v>188.6850345405797</v>
       </c>
       <c r="G37" t="n">
-        <v>26.34147443148862</v>
+        <v>101.9524089228857</v>
       </c>
       <c r="H37" t="n">
-        <v>26.34147443148862</v>
+        <v>39.11911539140988</v>
       </c>
       <c r="I37" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="J37" t="n">
-        <v>95.36381534572554</v>
+        <v>95.36381534572556</v>
       </c>
       <c r="K37" t="n">
-        <v>340.1990973543666</v>
+        <v>340.1990973543667</v>
       </c>
       <c r="L37" t="n">
-        <v>666.1748434440383</v>
+        <v>666.1748434440385</v>
       </c>
       <c r="M37" t="n">
-        <v>732.283894717699</v>
+        <v>992.1505895337102</v>
       </c>
       <c r="N37" t="n">
-        <v>948.0111200225172</v>
+        <v>1059.870013320987</v>
       </c>
       <c r="O37" t="n">
-        <v>1273.986866112189</v>
+        <v>1114.193060883259</v>
       </c>
       <c r="P37" t="n">
-        <v>1312.749519588707</v>
+        <v>1312.749519588708</v>
       </c>
       <c r="Q37" t="n">
         <v>1317.073721574431</v>
@@ -7122,25 +7122,25 @@
         <v>1317.073721574431</v>
       </c>
       <c r="S37" t="n">
-        <v>1317.073721574431</v>
+        <v>1224.224267234599</v>
       </c>
       <c r="T37" t="n">
-        <v>1317.073721574431</v>
+        <v>1067.788112371139</v>
       </c>
       <c r="U37" t="n">
-        <v>1114.043725285318</v>
+        <v>1067.788112371139</v>
       </c>
       <c r="V37" t="n">
-        <v>919.882884411218</v>
+        <v>873.6272714970393</v>
       </c>
       <c r="W37" t="n">
-        <v>720.5381241064706</v>
+        <v>857.7501900272794</v>
       </c>
       <c r="X37" t="n">
-        <v>595.3152358649895</v>
+        <v>699.131232073341</v>
       </c>
       <c r="Y37" t="n">
-        <v>450.3044414401325</v>
+        <v>554.120437648484</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>404.5264742787795</v>
+        <v>239.4231646624468</v>
       </c>
       <c r="C38" t="n">
-        <v>404.5264742787795</v>
+        <v>239.4231646624468</v>
       </c>
       <c r="D38" t="n">
-        <v>404.5264742787795</v>
+        <v>239.4231646624468</v>
       </c>
       <c r="E38" t="n">
-        <v>404.5264742787795</v>
+        <v>239.4231646624468</v>
       </c>
       <c r="F38" t="n">
-        <v>71.93210014382214</v>
+        <v>239.4231646624468</v>
       </c>
       <c r="G38" t="n">
-        <v>26.34147443148862</v>
+        <v>239.4231646624468</v>
       </c>
       <c r="H38" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I38" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="J38" t="n">
         <v>100.7841956225195</v>
       </c>
       <c r="K38" t="n">
-        <v>232.9036372927683</v>
+        <v>232.9036372927682</v>
       </c>
       <c r="L38" t="n">
         <v>411.7547010373686</v>
@@ -7195,7 +7195,7 @@
         <v>1196.748070603753</v>
       </c>
       <c r="Q38" t="n">
-        <v>1294.691505550546</v>
+        <v>1294.691505550547</v>
       </c>
       <c r="R38" t="n">
         <v>1317.073721574431</v>
@@ -7204,22 +7204,22 @@
         <v>1317.073721574431</v>
       </c>
       <c r="T38" t="n">
-        <v>1182.329583932521</v>
+        <v>1311.683889161199</v>
       </c>
       <c r="U38" t="n">
-        <v>1005.135400234032</v>
+        <v>1134.48970546271</v>
       </c>
       <c r="V38" t="n">
-        <v>735.0227497568907</v>
+        <v>864.3770549855692</v>
       </c>
       <c r="W38" t="n">
-        <v>735.0227497568907</v>
+        <v>560.3416583071159</v>
       </c>
       <c r="X38" t="n">
-        <v>735.0227497568907</v>
+        <v>239.4231646624468</v>
       </c>
       <c r="Y38" t="n">
-        <v>735.0227497568907</v>
+        <v>239.4231646624468</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>214.1062693826965</v>
+        <v>533.0058861282096</v>
       </c>
       <c r="C39" t="n">
-        <v>159.8361023180204</v>
+        <v>399.0108148771552</v>
       </c>
       <c r="D39" t="n">
-        <v>122.6638487237911</v>
+        <v>282.1136570965476</v>
       </c>
       <c r="E39" t="n">
-        <v>81.89593690249737</v>
+        <v>161.6208410888756</v>
       </c>
       <c r="F39" t="n">
-        <v>52.6609612713802</v>
+        <v>52.66096127138022</v>
       </c>
       <c r="G39" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="H39" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I39" t="n">
-        <v>37.91884632369988</v>
+        <v>37.9188463236999</v>
       </c>
       <c r="J39" t="n">
-        <v>74.63519306380078</v>
+        <v>74.63519306380081</v>
       </c>
       <c r="K39" t="n">
         <v>169.041981749894</v>
       </c>
       <c r="L39" t="n">
-        <v>314.7441888275297</v>
+        <v>314.7441888275298</v>
       </c>
       <c r="M39" t="n">
-        <v>492.6113237677698</v>
+        <v>492.6113237677699</v>
       </c>
       <c r="N39" t="n">
-        <v>681.0215737005775</v>
+        <v>681.0215737005777</v>
       </c>
       <c r="O39" t="n">
-        <v>844.3811264035351</v>
+        <v>844.3811264035353</v>
       </c>
       <c r="P39" t="n">
-        <v>967.6616776517003</v>
+        <v>1167.772474367259</v>
       </c>
       <c r="Q39" t="n">
         <v>1229.964983537592</v>
@@ -7280,25 +7280,25 @@
         <v>1317.073721574431</v>
       </c>
       <c r="S39" t="n">
-        <v>1226.650076721735</v>
+        <v>1306.374980908113</v>
       </c>
       <c r="T39" t="n">
-        <v>1150.845039046791</v>
+        <v>1230.56994323317</v>
       </c>
       <c r="U39" t="n">
-        <v>1033.281350901611</v>
+        <v>1113.00625508799</v>
       </c>
       <c r="V39" t="n">
-        <v>819.569823894645</v>
+        <v>979.019632267402</v>
       </c>
       <c r="W39" t="n">
-        <v>610.412339329182</v>
+        <v>845.511368190109</v>
       </c>
       <c r="X39" t="n">
-        <v>434.0863574680749</v>
+        <v>748.9102905153801</v>
       </c>
       <c r="Y39" t="n">
-        <v>274.6843978319049</v>
+        <v>669.2332350655884</v>
       </c>
     </row>
     <row r="40">
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>428.2315132685778</v>
+        <v>419.1141114692897</v>
       </c>
       <c r="C40" t="n">
-        <v>336.8630450166725</v>
+        <v>327.7456432173844</v>
       </c>
       <c r="D40" t="n">
-        <v>257.0933045259608</v>
+        <v>327.7456432173844</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9073935806585</v>
+        <v>246.5597322720822</v>
       </c>
       <c r="F40" t="n">
         <v>175.9073935806585</v>
       </c>
       <c r="G40" t="n">
-        <v>89.17476796296444</v>
+        <v>89.17476796296445</v>
       </c>
       <c r="H40" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I40" t="n">
-        <v>26.34147443148862</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="J40" t="n">
-        <v>30.36245171438916</v>
+        <v>30.36245171438917</v>
       </c>
       <c r="K40" t="n">
-        <v>68.91754013731614</v>
+        <v>68.91754013731617</v>
       </c>
       <c r="L40" t="n">
-        <v>295.0288391860668</v>
+        <v>296.0596278431742</v>
       </c>
       <c r="M40" t="n">
-        <v>361.1378904597275</v>
+        <v>622.0353739328459</v>
       </c>
       <c r="N40" t="n">
-        <v>687.1136365493992</v>
+        <v>948.0111200225176</v>
       </c>
       <c r="O40" t="n">
-        <v>1013.089382639071</v>
+        <v>1273.986866112189</v>
       </c>
       <c r="P40" t="n">
-        <v>1312.749519588707</v>
+        <v>1312.749519588708</v>
       </c>
       <c r="Q40" t="n">
         <v>1317.073721574431</v>
@@ -7359,25 +7359,25 @@
         <v>1317.073721574431</v>
       </c>
       <c r="S40" t="n">
-        <v>1317.073721574431</v>
+        <v>1224.224267234599</v>
       </c>
       <c r="T40" t="n">
-        <v>1317.073721574431</v>
+        <v>1224.224267234599</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.341669033887</v>
+        <v>1224.224267234599</v>
       </c>
       <c r="V40" t="n">
-        <v>1039.180828159787</v>
+        <v>1030.063426360499</v>
       </c>
       <c r="W40" t="n">
-        <v>839.8360678550393</v>
+        <v>830.7186660557512</v>
       </c>
       <c r="X40" t="n">
-        <v>681.217109901101</v>
+        <v>672.0997081018129</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.206315476244</v>
+        <v>527.0889136769558</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>939.7254517276483</v>
+        <v>934.0876421246853</v>
       </c>
       <c r="C41" t="n">
-        <v>939.7254517276483</v>
+        <v>934.0876421246853</v>
       </c>
       <c r="D41" t="n">
-        <v>939.7254517276483</v>
+        <v>934.0876421246853</v>
       </c>
       <c r="E41" t="n">
-        <v>934.0876421246849</v>
+        <v>601.4932679897279</v>
       </c>
       <c r="F41" t="n">
-        <v>601.4932679897277</v>
+        <v>601.4932679897279</v>
       </c>
       <c r="G41" t="n">
-        <v>268.8988938547704</v>
+        <v>268.8988938547705</v>
       </c>
       <c r="H41" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I41" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="J41" t="n">
-        <v>100.7841956225194</v>
+        <v>100.7841956225195</v>
       </c>
       <c r="K41" t="n">
-        <v>232.9036372927678</v>
+        <v>232.9036372927685</v>
       </c>
       <c r="L41" t="n">
-        <v>411.7547010373681</v>
+        <v>411.7547010373689</v>
       </c>
       <c r="M41" t="n">
-        <v>623.5870925287444</v>
+        <v>623.5870925287453</v>
       </c>
       <c r="N41" t="n">
-        <v>840.7157459718254</v>
+        <v>840.7157459718263</v>
       </c>
       <c r="O41" t="n">
-        <v>1040.343395569186</v>
+        <v>1040.343395569187</v>
       </c>
       <c r="P41" t="n">
-        <v>1196.748070603752</v>
+        <v>1196.748070603753</v>
       </c>
       <c r="Q41" t="n">
-        <v>1294.691505550546</v>
+        <v>1294.691505550547</v>
       </c>
       <c r="R41" t="n">
         <v>1317.073721574431</v>
       </c>
       <c r="S41" t="n">
-        <v>1272.319825862606</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="T41" t="n">
-        <v>1272.319825862606</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="U41" t="n">
-        <v>1272.319825862606</v>
+        <v>1266.682016259643</v>
       </c>
       <c r="V41" t="n">
-        <v>1272.319825862606</v>
+        <v>1266.682016259643</v>
       </c>
       <c r="W41" t="n">
-        <v>1272.319825862606</v>
+        <v>1266.682016259643</v>
       </c>
       <c r="X41" t="n">
-        <v>1272.319825862606</v>
+        <v>934.0876421246853</v>
       </c>
       <c r="Y41" t="n">
-        <v>1272.319825862606</v>
+        <v>934.0876421246853</v>
       </c>
     </row>
     <row r="42">
@@ -7478,40 +7478,40 @@
         <v>152.2117530206199</v>
       </c>
       <c r="F42" t="n">
-        <v>93.50104819717889</v>
+        <v>93.50104819717895</v>
       </c>
       <c r="G42" t="n">
-        <v>37.7058321649636</v>
+        <v>37.70583216496363</v>
       </c>
       <c r="H42" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I42" t="n">
-        <v>37.91884632369988</v>
+        <v>37.9188463236999</v>
       </c>
       <c r="J42" t="n">
-        <v>74.63519306380078</v>
+        <v>318.3035970384341</v>
       </c>
       <c r="K42" t="n">
-        <v>169.041981749894</v>
+        <v>412.7103857245273</v>
       </c>
       <c r="L42" t="n">
-        <v>314.7441888275297</v>
+        <v>558.4125928021631</v>
       </c>
       <c r="M42" t="n">
-        <v>492.6113237677698</v>
+        <v>736.2797277424032</v>
       </c>
       <c r="N42" t="n">
-        <v>681.0215737005775</v>
+        <v>924.689977675211</v>
       </c>
       <c r="O42" t="n">
-        <v>844.3811264035351</v>
+        <v>1088.049530378169</v>
       </c>
       <c r="P42" t="n">
-        <v>967.6616776517003</v>
+        <v>1211.330081626334</v>
       </c>
       <c r="Q42" t="n">
-        <v>1229.964983537591</v>
+        <v>1317.073721574431</v>
       </c>
       <c r="R42" t="n">
         <v>1317.073721574431</v>
@@ -7526,10 +7526,10 @@
         <v>1024.579067511019</v>
       </c>
       <c r="V42" t="n">
-        <v>861.1167154981069</v>
+        <v>861.1167154981071</v>
       </c>
       <c r="W42" t="n">
-        <v>698.1327222284903</v>
+        <v>698.1327222284904</v>
       </c>
       <c r="X42" t="n">
         <v>572.0559153614377</v>
@@ -7545,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>591.9214773431579</v>
+        <v>569.1479126813216</v>
       </c>
       <c r="C43" t="n">
-        <v>471.077279898929</v>
+        <v>569.1479126813216</v>
       </c>
       <c r="D43" t="n">
-        <v>361.8318102158935</v>
+        <v>459.9024429982861</v>
       </c>
       <c r="E43" t="n">
-        <v>251.1701700782676</v>
+        <v>349.2408028606601</v>
       </c>
       <c r="F43" t="n">
-        <v>251.1701700782676</v>
+        <v>234.8588519653059</v>
       </c>
       <c r="G43" t="n">
-        <v>160.9038673075331</v>
+        <v>118.6504971552881</v>
       </c>
       <c r="H43" t="n">
-        <v>68.59484458373356</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="I43" t="n">
-        <v>26.34147443148861</v>
+        <v>26.34147443148863</v>
       </c>
       <c r="J43" t="n">
-        <v>95.36381534572553</v>
+        <v>30.36245171438917</v>
       </c>
       <c r="K43" t="n">
-        <v>340.1990973543666</v>
+        <v>68.91754013731617</v>
       </c>
       <c r="L43" t="n">
-        <v>565.0711651998503</v>
+        <v>130.3666273357056</v>
       </c>
       <c r="M43" t="n">
-        <v>891.0469112895219</v>
+        <v>456.3423734253774</v>
       </c>
       <c r="N43" t="n">
-        <v>958.7663350767989</v>
+        <v>782.3181195150491</v>
       </c>
       <c r="O43" t="n">
-        <v>1013.089382639071</v>
+        <v>1108.293865604721</v>
       </c>
       <c r="P43" t="n">
-        <v>1312.749519588707</v>
+        <v>1312.749519588708</v>
       </c>
       <c r="Q43" t="n">
         <v>1317.073721574431</v>
@@ -7596,25 +7596,25 @@
         <v>1317.073721574431</v>
       </c>
       <c r="S43" t="n">
-        <v>1194.748538042274</v>
+        <v>1194.748538042275</v>
       </c>
       <c r="T43" t="n">
         <v>1008.836653986491</v>
       </c>
       <c r="U43" t="n">
-        <v>1008.836653986491</v>
+        <v>881.0849676984923</v>
       </c>
       <c r="V43" t="n">
-        <v>1008.836653986491</v>
+        <v>881.0849676984923</v>
       </c>
       <c r="W43" t="n">
-        <v>780.0161644894199</v>
+        <v>881.0849676984923</v>
       </c>
       <c r="X43" t="n">
-        <v>591.9214773431579</v>
+        <v>881.0849676984923</v>
       </c>
       <c r="Y43" t="n">
-        <v>591.9214773431579</v>
+        <v>706.5984440813115</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>984.4793474394742</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="C44" t="n">
-        <v>691.5302227014035</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="D44" t="n">
-        <v>691.5302227014035</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="E44" t="n">
-        <v>358.9358485664461</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="F44" t="n">
-        <v>26.34147443148863</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="G44" t="n">
-        <v>26.34147443148863</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="H44" t="n">
-        <v>26.34147443148863</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="I44" t="n">
-        <v>26.34147443148863</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="J44" t="n">
         <v>100.7841956225195</v>
@@ -7654,19 +7654,19 @@
         <v>232.9036372927682</v>
       </c>
       <c r="L44" t="n">
-        <v>411.754701037369</v>
+        <v>411.7547010373686</v>
       </c>
       <c r="M44" t="n">
-        <v>623.5870925287453</v>
+        <v>623.587092528745</v>
       </c>
       <c r="N44" t="n">
-        <v>840.7157459718263</v>
+        <v>840.715745971826</v>
       </c>
       <c r="O44" t="n">
         <v>1040.343395569187</v>
       </c>
       <c r="P44" t="n">
-        <v>1196.748070603753</v>
+        <v>1196.748070603754</v>
       </c>
       <c r="Q44" t="n">
         <v>1294.691505550547</v>
@@ -7675,25 +7675,25 @@
         <v>1317.073721574432</v>
       </c>
       <c r="S44" t="n">
-        <v>1317.073721574432</v>
+        <v>1272.319825862607</v>
       </c>
       <c r="T44" t="n">
-        <v>1317.073721574432</v>
+        <v>1272.319825862607</v>
       </c>
       <c r="U44" t="n">
-        <v>1317.073721574432</v>
+        <v>1272.319825862607</v>
       </c>
       <c r="V44" t="n">
-        <v>1317.073721574432</v>
+        <v>1024.124596836361</v>
       </c>
       <c r="W44" t="n">
-        <v>1317.073721574432</v>
+        <v>691.5302227014038</v>
       </c>
       <c r="X44" t="n">
-        <v>984.4793474394742</v>
+        <v>358.9358485664462</v>
       </c>
       <c r="Y44" t="n">
-        <v>984.4793474394742</v>
+        <v>26.34147443148864</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>372.8492730777906</v>
+        <v>372.8492730777907</v>
       </c>
       <c r="C45" t="n">
         <v>289.1033768207909</v>
       </c>
       <c r="D45" t="n">
-        <v>222.4553940342378</v>
+        <v>222.4553940342379</v>
       </c>
       <c r="E45" t="n">
         <v>152.2117530206204</v>
@@ -7718,16 +7718,16 @@
         <v>93.5010481971795</v>
       </c>
       <c r="G45" t="n">
-        <v>37.70583216496361</v>
+        <v>37.70583216496364</v>
       </c>
       <c r="H45" t="n">
-        <v>26.34147443148863</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="I45" t="n">
-        <v>37.9188463236999</v>
+        <v>37.91884632369991</v>
       </c>
       <c r="J45" t="n">
-        <v>74.63519306380081</v>
+        <v>74.63519306380084</v>
       </c>
       <c r="K45" t="n">
         <v>169.041981749894</v>
@@ -7739,16 +7739,16 @@
         <v>492.6113237677699</v>
       </c>
       <c r="N45" t="n">
-        <v>681.0215737005776</v>
+        <v>681.0215737005777</v>
       </c>
       <c r="O45" t="n">
-        <v>844.3811264035352</v>
+        <v>844.3811264035353</v>
       </c>
       <c r="P45" t="n">
-        <v>1167.77247436726</v>
+        <v>991.0979754847599</v>
       </c>
       <c r="Q45" t="n">
-        <v>1229.964983537592</v>
+        <v>1317.073721574432</v>
       </c>
       <c r="R45" t="n">
         <v>1317.073721574432</v>
@@ -7763,13 +7763,13 @@
         <v>1024.579067511019</v>
       </c>
       <c r="V45" t="n">
-        <v>861.1167154981074</v>
+        <v>861.1167154981076</v>
       </c>
       <c r="W45" t="n">
-        <v>698.1327222284907</v>
+        <v>698.1327222284909</v>
       </c>
       <c r="X45" t="n">
-        <v>572.0559153614381</v>
+        <v>572.0559153614382</v>
       </c>
       <c r="Y45" t="n">
         <v>462.9031307193227</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>140.7234253268428</v>
+        <v>508.6180596994059</v>
       </c>
       <c r="C46" t="n">
-        <v>140.7234253268428</v>
+        <v>387.7738622551769</v>
       </c>
       <c r="D46" t="n">
-        <v>140.7234253268428</v>
+        <v>387.7738622551769</v>
       </c>
       <c r="E46" t="n">
-        <v>140.7234253268428</v>
+        <v>277.1122221175509</v>
       </c>
       <c r="F46" t="n">
-        <v>26.34147443148863</v>
+        <v>277.1122221175509</v>
       </c>
       <c r="G46" t="n">
-        <v>26.34147443148863</v>
+        <v>160.9038673075331</v>
       </c>
       <c r="H46" t="n">
-        <v>26.34147443148863</v>
+        <v>68.5948445837336</v>
       </c>
       <c r="I46" t="n">
-        <v>26.34147443148863</v>
+        <v>26.34147443148864</v>
       </c>
       <c r="J46" t="n">
         <v>95.36381534572556</v>
@@ -7815,13 +7815,13 @@
         <v>666.1748434440385</v>
       </c>
       <c r="M46" t="n">
-        <v>992.1505895337103</v>
+        <v>732.2838947176994</v>
       </c>
       <c r="N46" t="n">
-        <v>1093.38985834408</v>
+        <v>800.0033185049765</v>
       </c>
       <c r="O46" t="n">
-        <v>1147.712905906352</v>
+        <v>886.8154224332345</v>
       </c>
       <c r="P46" t="n">
         <v>1186.475559382871</v>
@@ -7836,22 +7836,22 @@
         <v>1317.073721574432</v>
       </c>
       <c r="T46" t="n">
-        <v>1188.267421135217</v>
+        <v>1193.580844744337</v>
       </c>
       <c r="U46" t="n">
-        <v>955.7616956537802</v>
+        <v>961.0751192629004</v>
       </c>
       <c r="V46" t="n">
-        <v>732.1251255873567</v>
+        <v>737.438549196477</v>
       </c>
       <c r="W46" t="n">
-        <v>503.3046360902856</v>
+        <v>508.6180596994059</v>
       </c>
       <c r="X46" t="n">
-        <v>315.2099489440236</v>
+        <v>508.6180596994059</v>
       </c>
       <c r="Y46" t="n">
-        <v>140.7234253268428</v>
+        <v>508.6180596994059</v>
       </c>
     </row>
   </sheetData>
@@ -8771,13 +8771,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.36734315683879</v>
       </c>
       <c r="L12" t="n">
-        <v>64.22177521044284</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>149.6046577266986</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>266.4477140599382</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>0.8696751920627506</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>19.76545843403778</v>
+        <v>8.071143391400128</v>
       </c>
       <c r="J15" t="n">
-        <v>246.129700984478</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>233.9080377813924</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>43.99104118966127</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>67.90701943538426</v>
       </c>
       <c r="R15" t="n">
-        <v>0.8696751920627506</v>
+        <v>0.8696751920627435</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9087,25 +9087,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>267.1986453447295</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>262.4916109252636</v>
       </c>
       <c r="N16" t="n">
-        <v>91.27715188000457</v>
+        <v>260.8649720226208</v>
       </c>
       <c r="O16" t="n">
-        <v>274.3966651791919</v>
+        <v>174.5646870137234</v>
       </c>
       <c r="P16" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>8.071143391400135</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>162.8600105936819</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>138.9550466230949</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.8696751920627506</v>
+        <v>44.86071638172381</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9324,19 +9324,19 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>267.1986453447295</v>
       </c>
       <c r="M19" t="n">
-        <v>262.4916109252635</v>
+        <v>162.659632759795</v>
       </c>
       <c r="N19" t="n">
-        <v>227.0658271315822</v>
+        <v>260.8649720226208</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>274.3966651791919</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>8.071143391400135</v>
+        <v>8.071143391400128</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>35.36734315683822</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9488,10 +9488,10 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>149.6046577266985</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>64.22177521044244</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>266.4477140599381</v>
       </c>
       <c r="R21" t="n">
-        <v>88.85829947169823</v>
+        <v>0.8696751920627435</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9564,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>236.6508802891974</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>262.4916109252635</v>
       </c>
       <c r="N22" t="n">
         <v>260.8649720226207</v>
@@ -9576,10 +9576,10 @@
         <v>274.3966651791918</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>101.7087241173051</v>
       </c>
       <c r="Q22" t="n">
-        <v>127.5494547533709</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,19 +9637,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>419.9902098168824</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>444.5647481696638</v>
+        <v>444.5647481696637</v>
       </c>
       <c r="N23" t="n">
-        <v>439.2149886224872</v>
+        <v>400.8501540314195</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>8.071143391400135</v>
+        <v>8.071143391400128</v>
       </c>
       <c r="J24" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>268.2202601476024</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,13 +9731,13 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>144.2800743623458</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>534.0110514456345</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>88.85829947169823</v>
@@ -9877,16 +9877,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>525.0828793021158</v>
       </c>
       <c r="L26" t="n">
-        <v>477.8792206411547</v>
+        <v>477.8792206411546</v>
       </c>
       <c r="M26" t="n">
-        <v>444.5647481696637</v>
+        <v>172.529395073701</v>
       </c>
       <c r="N26" t="n">
-        <v>381.3259777982151</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>8.071143391400135</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>514.3499611320807</v>
+        <v>256.5259451049647</v>
       </c>
       <c r="Q27" t="n">
         <v>410.0708656603775</v>
@@ -10111,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>525.0828793021158</v>
       </c>
       <c r="L29" t="n">
-        <v>419.9902098168825</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>444.5647481696638</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>439.2149886224872</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>448.6104744910291</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8.071143391400135</v>
+        <v>8.071143391400128</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>430.8936152001493</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>493.527211592309</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>88.85829947169823</v>
+        <v>86.97211795522522</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>525.0828793021158</v>
       </c>
       <c r="L32" t="n">
-        <v>419.9902098168825</v>
+        <v>448.6104744910297</v>
       </c>
       <c r="M32" t="n">
-        <v>444.5647481696638</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>439.2149886224872</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10424,25 +10424,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>8.071143391400135</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>478.8730881203064</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>150.3606681167887</v>
       </c>
       <c r="O33" t="n">
-        <v>445.5477386721518</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>19.76545843403778</v>
+        <v>8.071143391400128</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>35.36734315683867</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>23.67302811420095</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>266.4477140599381</v>
+        <v>266.4477140599382</v>
       </c>
       <c r="R36" t="n">
-        <v>0.8696751920627506</v>
+        <v>0.8696751920627435</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10749,19 +10749,19 @@
         <v>208.3638319047618</v>
       </c>
       <c r="L37" t="n">
-        <v>267.1986453447295</v>
+        <v>267.1986453447296</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>262.4916109252636</v>
       </c>
       <c r="N37" t="n">
-        <v>149.502829815698</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>274.3966651791918</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>161.4078840696266</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10919,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>202.1321178945037</v>
       </c>
       <c r="Q39" t="n">
-        <v>202.1321178945035</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>88.85829947169823</v>
@@ -10986,19 +10986,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>166.3254665155164</v>
+        <v>167.3666671792612</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>262.4916109252636</v>
       </c>
       <c r="N40" t="n">
-        <v>260.8649720226207</v>
+        <v>260.8649720226209</v>
       </c>
       <c r="O40" t="n">
-        <v>274.3966651791918</v>
+        <v>274.3966651791919</v>
       </c>
       <c r="P40" t="n">
-        <v>263.5328115890082</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>202.1321178945033</v>
+        <v>43.99104118966122</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>0.8696751920627435</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,25 +11217,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>65.65794306195595</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>208.3638319047618</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>165.0737178253477</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>262.4916109252634</v>
+        <v>262.4916109252636</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>260.8649720226209</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>274.3966651791919</v>
       </c>
       <c r="P43" t="n">
-        <v>263.5328115890082</v>
+        <v>167.3666671792612</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>202.1321178945041</v>
+        <v>23.67302811420132</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>266.4477140599383</v>
       </c>
       <c r="R45" t="n">
-        <v>88.85829947169823</v>
+        <v>0.8696751920627435</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11463,16 +11463,16 @@
         <v>267.1986453447297</v>
       </c>
       <c r="M46" t="n">
-        <v>262.4916109252637</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>33.85842931625564</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>32.81722865251137</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>263.5328115890082</v>
       </c>
       <c r="Q46" t="n">
         <v>127.5494547533709</v>
@@ -23266,16 +23266,16 @@
         <v>308.8417709130335</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>318.6192936334357</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>159.1707838555421</v>
+        <v>311.3136088579291</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>198.3010087783265</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>162.7723773111821</v>
       </c>
       <c r="V11" t="n">
         <v>254.7616594220476</v>
       </c>
       <c r="W11" t="n">
-        <v>288.3451781613466</v>
+        <v>66.91890422047004</v>
       </c>
       <c r="X11" t="n">
-        <v>305.0594441579005</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>305.3497866265543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>94.24518963526745</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>46.70076163828004</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>79.27109524611247</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>142.2219287645029</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>50.36374919321858</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>130.9108219302864</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>314.5414481730081</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>314.4458250850261</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>308.8417709130335</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>318.6192936334357</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>325.2425882310128</v>
       </c>
       <c r="G14" t="n">
         <v>311.3136088579291</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.47552030398446</v>
+        <v>2.475520303984453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>120.7468317151689</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>128.1262834372911</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>254.7616594220476</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>288.3451781613466</v>
       </c>
       <c r="X14" t="n">
-        <v>179.1031543271454</v>
+        <v>305.0594441579005</v>
       </c>
       <c r="Y14" t="n">
-        <v>305.3497866265543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>188.3498317758998</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>83.50694142793411</v>
       </c>
       <c r="W16" t="n">
-        <v>127.4738693797571</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>144.3829038240769</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>314.5414481730081</v>
       </c>
       <c r="C17" t="n">
         <v>314.4458250850261</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>308.8417709130335</v>
       </c>
       <c r="E17" t="n">
-        <v>318.6192936334357</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>325.2425882310128</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>311.3136088579291</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>109.9203238586406</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.47552030398446</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>120.7468317151689</v>
@@ -23791,10 +23791,10 @@
         <v>162.7723773111821</v>
       </c>
       <c r="V17" t="n">
-        <v>109.9345714728321</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>288.3451781613466</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>305.0594441579005</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>77.80491901906416</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,13 +23901,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>71.40729493567815</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>73.21543481119508</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>49.42912443789676</v>
+        <v>48.20277413364443</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>79.27109524611247</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>144.3829038240769</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>314.5414481730081</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>314.4458250850261</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>308.8417709130335</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>318.6192936334357</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>186.0195544537898</v>
       </c>
       <c r="H20" t="n">
-        <v>198.3010087783265</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>2.475520303984453</v>
       </c>
       <c r="T20" t="n">
-        <v>109.4146889830518</v>
+        <v>120.7468317151689</v>
       </c>
       <c r="U20" t="n">
         <v>162.7723773111821</v>
@@ -24129,16 +24129,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>66.40311244714623</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.32217853548258</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>67.72418728552722</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>71.40729493567815</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24189,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>184.7014481513779</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>87.15532505245665</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>75.27054762566064</v>
+        <v>314.4458250850261</v>
       </c>
       <c r="D23" t="n">
         <v>308.8417709130335</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>318.6192936334357</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24256,22 +24256,22 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>2.47552030398446</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>120.7468317151689</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>162.7723773111821</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>33.25960239543494</v>
       </c>
       <c r="X23" t="n">
-        <v>305.0594441579005</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>376.8423728794621</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>371.2383187074696</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.0158414278718</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>387.6391360254489</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>331.9824921087827</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>260.6975565727626</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>64.87206809842048</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>183.143379509605</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>225.1689251056181</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>317.1582072164837</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>350.7417259557827</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>79.18996426937218</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>367.7463344209904</v>
       </c>
     </row>
     <row r="27">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>376.9379959674441</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>376.8423728794621</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>254.0070851674948</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.0158414278718</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>260.6975565727626</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>64.8720680984205</v>
+        <v>64.87206809842051</v>
       </c>
       <c r="T29" t="n">
         <v>183.143379509605</v>
@@ -24739,16 +24739,16 @@
         <v>225.1689251056181</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>317.1582072164837</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>350.7417259557827</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>367.7463344209904</v>
+        <v>65.92045726249069</v>
       </c>
     </row>
     <row r="30">
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>327.0956896353481</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>154.4417597522267</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>337.8924527813348</v>
+        <v>192.6113128650384</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,13 +24967,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.1253848543065</v>
+        <v>15.12538485430649</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>133.396696265491</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>175.4222418615041</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>317.7093087082225</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>317.9996511768763</v>
       </c>
     </row>
     <row r="33">
@@ -25156,22 +25156,22 @@
         <v>327.1913127233301</v>
       </c>
       <c r="C35" t="n">
-        <v>327.0956896353481</v>
+        <v>146.4308598235933</v>
       </c>
       <c r="D35" t="n">
-        <v>321.4916354633556</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>331.2691581837578</v>
       </c>
       <c r="F35" t="n">
-        <v>8.624022387727109</v>
+        <v>337.8924527813348</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>323.9634734082512</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>210.9508733286486</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,19 +25207,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>133.396696265491</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>177.7136994126661</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>300.9950427116686</v>
       </c>
       <c r="X35" t="n">
-        <v>317.7093087082225</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>317.9996511768763</v>
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>106.8950541855895</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>78.97204308580461</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>62.20496059616107</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>12.64986455032204</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>91.9209597964345</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>154.871793314825</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>200.9996963262219</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>181.6330020466376</v>
       </c>
       <c r="X37" t="n">
-        <v>33.06210901533271</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>327.1913127233301</v>
       </c>
       <c r="C38" t="n">
         <v>327.0956896353481</v>
@@ -25402,13 +25402,13 @@
         <v>331.2691581837578</v>
       </c>
       <c r="F38" t="n">
-        <v>8.624022387727109</v>
+        <v>337.8924527813348</v>
       </c>
       <c r="G38" t="n">
-        <v>278.828753953041</v>
+        <v>323.9634734082512</v>
       </c>
       <c r="H38" t="n">
-        <v>210.9508733286486</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>15.1253848543065</v>
+        <v>15.12538485430649</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>128.0607621763913</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25453,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>300.9950427116686</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>317.7093087082225</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>317.9996511768763</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>78.97204308580461</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>84.05715948600019</v>
+        <v>14.11134418149079</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>91.9209597964345</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>154.871793314825</v>
       </c>
       <c r="U40" t="n">
-        <v>118.104964311083</v>
+        <v>200.9996963262219</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>27.10385423012286</v>
+        <v>356.3722846237306</v>
       </c>
       <c r="C41" t="n">
-        <v>356.2766615357485</v>
+        <v>356.2766615357486</v>
       </c>
       <c r="D41" t="n">
-        <v>350.672607363756</v>
+        <v>350.6726073637561</v>
       </c>
       <c r="E41" t="n">
-        <v>354.8686985772244</v>
+        <v>31.18169969055043</v>
       </c>
       <c r="F41" t="n">
-        <v>37.8049942881276</v>
+        <v>367.0734246817353</v>
       </c>
       <c r="G41" t="n">
-        <v>23.87601491504392</v>
+        <v>23.87601491504381</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>44.30635675470695</v>
       </c>
       <c r="T41" t="n">
         <v>162.5776681658914</v>
       </c>
       <c r="U41" t="n">
-        <v>204.6032137619045</v>
+        <v>154.7154255002638</v>
       </c>
       <c r="V41" t="n">
         <v>296.5924958727701</v>
@@ -25693,7 +25693,7 @@
         <v>330.1760146120691</v>
       </c>
       <c r="X41" t="n">
-        <v>346.890280608623</v>
+        <v>17.62185021501517</v>
       </c>
       <c r="Y41" t="n">
         <v>347.1806230772768</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>136.07602608599</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>119.6357554697867</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>113.2381313864006</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>25.6826315188904</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.83083645072251</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>230.1806682266223</v>
+        <v>103.7064988015032</v>
       </c>
       <c r="V43" t="n">
-        <v>221.4002043657592</v>
+        <v>221.4002043657593</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>226.5322846021004</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>186.2137402747994</v>
       </c>
       <c r="Y43" t="n">
-        <v>172.7416583810089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>356.3722846237305</v>
+        <v>356.3722846237306</v>
       </c>
       <c r="C44" t="n">
-        <v>66.25702804505863</v>
+        <v>356.2766615357486</v>
       </c>
       <c r="D44" t="n">
-        <v>350.672607363756</v>
+        <v>350.6726073637561</v>
       </c>
       <c r="E44" t="n">
-        <v>31.18169969055032</v>
+        <v>360.4501300841583</v>
       </c>
       <c r="F44" t="n">
-        <v>37.80499428812738</v>
+        <v>367.0734246817353</v>
       </c>
       <c r="G44" t="n">
-        <v>353.1444453086516</v>
+        <v>353.1444453086517</v>
       </c>
       <c r="H44" t="n">
         <v>240.131845229049</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>44.30635675470695</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>162.5776681658914</v>
       </c>
       <c r="U44" t="n">
-        <v>204.6032137619045</v>
+        <v>204.6032137619046</v>
       </c>
       <c r="V44" t="n">
-        <v>296.5924958727701</v>
+        <v>50.87921913678738</v>
       </c>
       <c r="W44" t="n">
-        <v>330.1760146120691</v>
+        <v>0.9075842184611815</v>
       </c>
       <c r="X44" t="n">
         <v>17.62185021501506</v>
       </c>
       <c r="Y44" t="n">
-        <v>347.1806230772768</v>
+        <v>17.91219268366888</v>
       </c>
     </row>
     <row r="45">
@@ -26025,25 +26025,25 @@
         <v>136.07602608599</v>
       </c>
       <c r="C46" t="n">
-        <v>119.6357554697866</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>108.1530149862051</v>
       </c>
       <c r="E46" t="n">
-        <v>109.5550237362497</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>113.2381313864007</v>
       </c>
       <c r="G46" t="n">
-        <v>115.0462712619176</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>91.38593249656151</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>41.83083645072249</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>121.1019316968349</v>
+        <v>121.101931696835</v>
       </c>
       <c r="T46" t="n">
-        <v>56.53452778040285</v>
+        <v>61.79481715343169</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>186.2137402747994</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>172.7416583810089</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>367419.6331534457</v>
+        <v>367419.6331534456</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>527784.6215091809</v>
+        <v>527784.6215091808</v>
       </c>
     </row>
     <row r="10">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353431.4129336995</v>
+        <v>353431.4129336994</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>648009.6978780749</v>
+        <v>648009.6978780747</v>
       </c>
       <c r="C2" t="n">
+        <v>648009.6978780748</v>
+      </c>
+      <c r="D2" t="n">
         <v>648009.6978780746</v>
-      </c>
-      <c r="D2" t="n">
-        <v>648009.6978780748</v>
       </c>
       <c r="E2" t="n">
         <v>465666.8928037396</v>
       </c>
       <c r="F2" t="n">
+        <v>465666.8928037395</v>
+      </c>
+      <c r="G2" t="n">
         <v>465666.8928037397</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>465666.8928037396</v>
       </c>
-      <c r="H2" t="n">
-        <v>465666.8928037397</v>
-      </c>
       <c r="I2" t="n">
-        <v>573906.3193644842</v>
+        <v>573906.3193644843</v>
       </c>
       <c r="J2" t="n">
         <v>504371.6065023646</v>
       </c>
       <c r="K2" t="n">
-        <v>504371.6065023647</v>
+        <v>504371.6065023646</v>
       </c>
       <c r="L2" t="n">
-        <v>559809.3103096054</v>
+        <v>559809.3103096053</v>
       </c>
       <c r="M2" t="n">
-        <v>447015.9325107447</v>
+        <v>447015.9325107448</v>
       </c>
       <c r="N2" t="n">
-        <v>447015.9325107447</v>
+        <v>447015.9325107448</v>
       </c>
       <c r="O2" t="n">
-        <v>403991.5075407944</v>
+        <v>403991.5075407946</v>
       </c>
       <c r="P2" t="n">
-        <v>403991.5075407947</v>
+        <v>403991.5075407943</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87559.3902786986</v>
+        <v>87559.39027869859</v>
       </c>
       <c r="J3" t="n">
         <v>23344.77752032037</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>39797.34659529121</v>
+        <v>39797.34659529122</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26441,10 +26441,10 @@
         <v>166475.9614383018</v>
       </c>
       <c r="J4" t="n">
-        <v>126859.8783269908</v>
+        <v>126859.8783269907</v>
       </c>
       <c r="K4" t="n">
-        <v>126859.8783269908</v>
+        <v>126859.8783269907</v>
       </c>
       <c r="L4" t="n">
         <v>158429.8528057904</v>
@@ -26456,10 +26456,10 @@
         <v>103222.1732389988</v>
       </c>
       <c r="O4" t="n">
-        <v>78665.24802089749</v>
+        <v>78665.24802089747</v>
       </c>
       <c r="P4" t="n">
-        <v>78665.2480208975</v>
+        <v>78665.24802089747</v>
       </c>
     </row>
     <row r="5">
@@ -26487,7 +26487,7 @@
         <v>37207.47332736963</v>
       </c>
       <c r="H5" t="n">
-        <v>37207.47332736962</v>
+        <v>37207.47332736963</v>
       </c>
       <c r="I5" t="n">
         <v>57226.99389530098</v>
@@ -26499,16 +26499,16 @@
         <v>51981.37851877054</v>
       </c>
       <c r="L5" t="n">
-        <v>56163.53243241995</v>
+        <v>56163.53243241996</v>
       </c>
       <c r="M5" t="n">
-        <v>36144.0118644886</v>
+        <v>36144.01186448861</v>
       </c>
       <c r="N5" t="n">
-        <v>36144.0118644886</v>
+        <v>36144.01186448861</v>
       </c>
       <c r="O5" t="n">
-        <v>33690.79673779383</v>
+        <v>33690.79673779384</v>
       </c>
       <c r="P5" t="n">
         <v>33690.79673779385</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>251384.2256832087</v>
+        <v>251375.425997579</v>
       </c>
       <c r="C6" t="n">
-        <v>251384.2256832083</v>
+        <v>251375.4259975792</v>
       </c>
       <c r="D6" t="n">
-        <v>251384.2256832086</v>
+        <v>251375.4259975789</v>
       </c>
       <c r="E6" t="n">
-        <v>-206688.3636341162</v>
+        <v>-207153.0203324315</v>
       </c>
       <c r="F6" t="n">
-        <v>314591.8921744004</v>
+        <v>314127.2354760849</v>
       </c>
       <c r="G6" t="n">
-        <v>314591.8921744003</v>
+        <v>314127.2354760852</v>
       </c>
       <c r="H6" t="n">
-        <v>314591.8921744004</v>
+        <v>314127.235476085</v>
       </c>
       <c r="I6" t="n">
-        <v>262643.9737521829</v>
+        <v>262449.9156202695</v>
       </c>
       <c r="J6" t="n">
-        <v>302185.5721362829</v>
+        <v>301817.6772222144</v>
       </c>
       <c r="K6" t="n">
-        <v>325530.3496566034</v>
+        <v>325162.4547425347</v>
       </c>
       <c r="L6" t="n">
-        <v>305418.5784761038</v>
+        <v>305189.2778215532</v>
       </c>
       <c r="M6" t="n">
-        <v>307649.7474072574</v>
+        <v>307138.4633082097</v>
       </c>
       <c r="N6" t="n">
-        <v>307649.7474072574</v>
+        <v>307138.4633082097</v>
       </c>
       <c r="O6" t="n">
-        <v>291635.462782103</v>
+        <v>291016.6176206308</v>
       </c>
       <c r="P6" t="n">
-        <v>291635.4627821033</v>
+        <v>291016.6176206304</v>
       </c>
     </row>
   </sheetData>
@@ -26712,7 +26712,7 @@
         <v>29.18097190040046</v>
       </c>
       <c r="K2" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="L2" t="n">
         <v>78.92765514451446</v>
@@ -26724,10 +26724,10 @@
         <v>78.92765514451446</v>
       </c>
       <c r="O2" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="P2" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
     </row>
     <row r="3">
@@ -26749,37 +26749,37 @@
         <v>435.2808374409663</v>
       </c>
       <c r="F3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="G3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="H3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="I3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="J3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="K3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="L3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="M3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="N3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="O3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
       <c r="P3" t="n">
-        <v>435.2808374409663</v>
+        <v>435.2808374409664</v>
       </c>
     </row>
     <row r="4">
@@ -26804,7 +26804,7 @@
         <v>329.2684303936078</v>
       </c>
       <c r="G4" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="H4" t="n">
         <v>329.2684303936077</v>
@@ -26822,16 +26822,16 @@
         <v>658.5368607872156</v>
       </c>
       <c r="M4" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="N4" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="O4" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="P4" t="n">
-        <v>329.2684303936079</v>
+        <v>329.268430393608</v>
       </c>
     </row>
   </sheetData>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411402</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>329.2684303936079</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -28171,19 +28171,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>85.9910498483228</v>
       </c>
       <c r="D12" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>85.99104984832275</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>60.99739740025424</v>
@@ -28222,19 +28222,19 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="U12" t="n">
         <v>91.5775196948365</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="W12" t="n">
         <v>91.5775196948365</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="Y12" t="n">
         <v>91.5775196948365</v>
@@ -28347,7 +28347,7 @@
         <v>91.5775196948365</v>
       </c>
       <c r="I14" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28408,10 +28408,10 @@
         <v>91.5775196948365</v>
       </c>
       <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
         <v>91.5775196948365</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>91.5775196948365</v>
@@ -28423,7 +28423,7 @@
         <v>91.5775196948365</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>60.99739740025424</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28459,10 +28459,10 @@
         <v>89.51940840416924</v>
       </c>
       <c r="T15" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>57.46903884440766</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -28474,7 +28474,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>88.04916113898996</v>
       </c>
     </row>
     <row r="16">
@@ -28532,7 +28532,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S16" t="n">
         <v>91.5775196948365</v>
@@ -28584,7 +28584,7 @@
         <v>91.5775196948365</v>
       </c>
       <c r="I17" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28645,22 +28645,22 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>85.99104984832297</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>91.5775196948365</v>
       </c>
       <c r="H18" t="n">
-        <v>60.99739740025424</v>
+        <v>57.46903884440784</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -28693,13 +28693,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>89.51940840416924</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="V18" t="n">
         <v>91.5775196948365</v>
@@ -28708,7 +28708,7 @@
         <v>91.5775196948365</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -28769,7 +28769,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S19" t="n">
         <v>91.5775196948365</v>
@@ -28821,7 +28821,7 @@
         <v>91.5775196948365</v>
       </c>
       <c r="I20" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28879,22 +28879,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>55.41092755374106</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>91.5775196948365</v>
       </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
       <c r="G21" t="n">
-        <v>91.5775196948365</v>
+        <v>57.46903884440812</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -28930,16 +28930,16 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>89.51940840416924</v>
       </c>
       <c r="T21" t="n">
         <v>91.5775196948365</v>
       </c>
       <c r="U21" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>91.5775196948365</v>
@@ -28948,7 +28948,7 @@
         <v>91.5775196948365</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
     </row>
     <row r="22">
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S22" t="n">
         <v>91.5775196948365</v>
@@ -29058,7 +29058,7 @@
         <v>91.5775196948365</v>
       </c>
       <c r="I23" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29195,22 +29195,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>54.65507701921204</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>91.5775196948365</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -29246,25 +29246,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="W25" t="n">
         <v>91.5775196948365</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>91.5775196948365</v>
       </c>
       <c r="Y25" t="n">
-        <v>91.5775196948365</v>
+        <v>54.65507701921163</v>
       </c>
     </row>
     <row r="26">
@@ -29295,7 +29295,7 @@
         <v>29.18097190040046</v>
       </c>
       <c r="I26" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="C29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="D29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="E29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="F29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="G29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="H29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="I29" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="T29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="U29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="V29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="W29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="X29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="Y29" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="C31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="D31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="E31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="F31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="G31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="H31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="I31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="J31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="K31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="L31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="M31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="N31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="O31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="P31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="Q31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="R31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="S31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="T31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="U31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="V31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="W31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="X31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
       <c r="Y31" t="n">
-        <v>29.18097190040045</v>
+        <v>29.18097190040044</v>
       </c>
     </row>
     <row r="32">
@@ -29769,7 +29769,7 @@
         <v>78.92765514451446</v>
       </c>
       <c r="I32" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29915,19 +29915,19 @@
         <v>78.92765514451446</v>
       </c>
       <c r="E34" t="n">
-        <v>78.92765514451446</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>78.92765514451446</v>
       </c>
       <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>78.92765514451446</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
-        <v>78.92765514451446</v>
+        <v>15.1499091754829</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -29954,10 +29954,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S34" t="n">
-        <v>15.14990917548289</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>78.92765514451446</v>
@@ -29969,10 +29969,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>78.92765514451446</v>
       </c>
       <c r="I35" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30064,22 +30064,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>4.034926861225756</v>
       </c>
       <c r="C36" t="n">
+        <v>0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
         <v>78.92765514451446</v>
-      </c>
-      <c r="D36" t="n">
-        <v>78.92765514451446</v>
-      </c>
-      <c r="E36" t="n">
-        <v>78.92765514451446</v>
-      </c>
-      <c r="F36" t="n">
-        <v>78.92765514451446</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>60.99739740025424</v>
@@ -30115,13 +30115,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="U36" t="n">
-        <v>4.034926861226154</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="V36" t="n">
         <v>78.92765514451446</v>
@@ -30191,7 +30191,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S37" t="n">
         <v>78.92765514451446</v>
@@ -30243,7 +30243,7 @@
         <v>78.92765514451446</v>
       </c>
       <c r="I38" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30301,19 +30301,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>78.92765514451446</v>
+        <v>4.034926861225756</v>
       </c>
       <c r="C39" t="n">
-        <v>78.92765514451446</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>78.92765514451446</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>78.92765514451446</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>78.92765514451446</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>78.92765514451446</v>
@@ -30352,7 +30352,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="T39" t="n">
         <v>78.92765514451446</v>
@@ -30361,16 +30361,16 @@
         <v>78.92765514451446</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="W39" t="n">
-        <v>4.034926861226211</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>78.92765514451446</v>
       </c>
     </row>
     <row r="40">
@@ -30428,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S40" t="n">
         <v>78.92765514451446</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="C41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="D41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="E41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="F41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="G41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="H41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="I41" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="T41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="U41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="V41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="W41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="X41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="Y41" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
     </row>
     <row r="42">
@@ -30538,25 +30538,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="C42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="D42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="E42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="F42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="G42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="H42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30589,25 +30589,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="T42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="U42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="V42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="W42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="X42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="Y42" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
     </row>
     <row r="43">
@@ -30617,28 +30617,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="C43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="D43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="E43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="F43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="G43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="H43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="I43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30665,28 +30665,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="T43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="U43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="V43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="W43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="X43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="Y43" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="C44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="D44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="E44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="F44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="G44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="H44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="I44" t="n">
-        <v>18.02627727542277</v>
+        <v>18.02627727542276</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="T44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="U44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="V44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="W44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="X44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="Y44" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
     </row>
     <row r="45">
@@ -30775,25 +30775,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="C45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="D45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="E45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="F45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="G45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="H45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30826,25 +30826,25 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="T45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="U45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="V45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="W45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="X45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="Y45" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
     </row>
     <row r="46">
@@ -30854,28 +30854,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="C46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="D46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="E46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="F46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="G46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="H46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="I46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30902,28 +30902,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>49.1265645514688</v>
+        <v>49.12656455146879</v>
       </c>
       <c r="S46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="T46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="U46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="V46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="W46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="X46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.74668324411401</v>
+        <v>49.74668324411399</v>
       </c>
     </row>
   </sheetData>
@@ -31995,7 +31995,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I14" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J14" t="n">
         <v>148.5182592030361</v>
@@ -32004,7 +32004,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L14" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M14" t="n">
         <v>307.2623370745973</v>
@@ -32013,13 +32013,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O14" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P14" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q14" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R14" t="n">
         <v>109.9204418287482</v>
@@ -32028,7 +32028,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T14" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U14" t="n">
         <v>0.1399898170664413</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H15" t="n">
         <v>9.042343434386868</v>
@@ -32077,7 +32077,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J15" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K15" t="n">
         <v>151.1861753968307</v>
@@ -32089,16 +32089,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N15" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O15" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P15" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R15" t="n">
         <v>58.13052391334266</v>
@@ -32107,7 +32107,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T15" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U15" t="n">
         <v>0.06159634492089149</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H16" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I16" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J16" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K16" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L16" t="n">
         <v>116.6980789427797</v>
@@ -32180,7 +32180,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R16" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S16" t="n">
         <v>13.67923549793987</v>
@@ -32232,7 +32232,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I17" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J17" t="n">
         <v>148.5182592030361</v>
@@ -32241,7 +32241,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L17" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M17" t="n">
         <v>307.2623370745973</v>
@@ -32250,13 +32250,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O17" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P17" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R17" t="n">
         <v>109.9204418287482</v>
@@ -32265,7 +32265,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T17" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U17" t="n">
         <v>0.1399898170664413</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H18" t="n">
         <v>9.042343434386868</v>
@@ -32314,7 +32314,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J18" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K18" t="n">
         <v>151.1861753968307</v>
@@ -32326,16 +32326,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N18" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O18" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P18" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q18" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R18" t="n">
         <v>58.13052391334266</v>
@@ -32344,7 +32344,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T18" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U18" t="n">
         <v>0.06159634492089149</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H19" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I19" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J19" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K19" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L19" t="n">
         <v>116.6980789427797</v>
@@ -32417,7 +32417,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R19" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S19" t="n">
         <v>13.67923549793987</v>
@@ -32469,7 +32469,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I20" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J20" t="n">
         <v>148.5182592030361</v>
@@ -32478,7 +32478,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L20" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M20" t="n">
         <v>307.2623370745973</v>
@@ -32487,13 +32487,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O20" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P20" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R20" t="n">
         <v>109.9204418287482</v>
@@ -32502,7 +32502,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T20" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U20" t="n">
         <v>0.1399898170664413</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H21" t="n">
         <v>9.042343434386868</v>
@@ -32551,7 +32551,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J21" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K21" t="n">
         <v>151.1861753968307</v>
@@ -32563,16 +32563,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N21" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O21" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P21" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q21" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R21" t="n">
         <v>58.13052391334266</v>
@@ -32581,7 +32581,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T21" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U21" t="n">
         <v>0.06159634492089149</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H22" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I22" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J22" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K22" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L22" t="n">
         <v>116.6980789427797</v>
@@ -32654,7 +32654,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R22" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S22" t="n">
         <v>13.67923549793987</v>
@@ -32706,7 +32706,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I23" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J23" t="n">
         <v>148.5182592030361</v>
@@ -32715,7 +32715,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L23" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M23" t="n">
         <v>307.2623370745973</v>
@@ -32724,13 +32724,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O23" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P23" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R23" t="n">
         <v>109.9204418287482</v>
@@ -32739,7 +32739,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T23" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U23" t="n">
         <v>0.1399898170664413</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H24" t="n">
         <v>9.042343434386868</v>
@@ -32788,7 +32788,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J24" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K24" t="n">
         <v>151.1861753968307</v>
@@ -32800,16 +32800,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N24" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O24" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P24" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q24" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R24" t="n">
         <v>58.13052391334266</v>
@@ -32818,7 +32818,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T24" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U24" t="n">
         <v>0.06159634492089149</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H25" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I25" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J25" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K25" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L25" t="n">
         <v>116.6980789427797</v>
@@ -32891,7 +32891,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R25" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S25" t="n">
         <v>13.67923549793987</v>
@@ -32943,7 +32943,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I26" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J26" t="n">
         <v>148.5182592030361</v>
@@ -32952,7 +32952,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L26" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M26" t="n">
         <v>307.2623370745973</v>
@@ -32961,13 +32961,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O26" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P26" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q26" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R26" t="n">
         <v>109.9204418287482</v>
@@ -32976,7 +32976,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T26" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U26" t="n">
         <v>0.1399898170664413</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H27" t="n">
         <v>9.042343434386868</v>
@@ -33025,7 +33025,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J27" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K27" t="n">
         <v>151.1861753968307</v>
@@ -33037,16 +33037,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N27" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O27" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P27" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q27" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R27" t="n">
         <v>58.13052391334266</v>
@@ -33055,7 +33055,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T27" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U27" t="n">
         <v>0.06159634492089149</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H28" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I28" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J28" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K28" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L28" t="n">
         <v>116.6980789427797</v>
@@ -33128,7 +33128,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R28" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S28" t="n">
         <v>13.67923549793987</v>
@@ -33180,7 +33180,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I29" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J29" t="n">
         <v>148.5182592030361</v>
@@ -33189,7 +33189,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L29" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M29" t="n">
         <v>307.2623370745973</v>
@@ -33198,13 +33198,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O29" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P29" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q29" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R29" t="n">
         <v>109.9204418287482</v>
@@ -33213,7 +33213,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T29" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U29" t="n">
         <v>0.1399898170664413</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H30" t="n">
         <v>9.042343434386868</v>
@@ -33262,7 +33262,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J30" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K30" t="n">
         <v>151.1861753968307</v>
@@ -33274,16 +33274,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N30" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O30" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P30" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q30" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R30" t="n">
         <v>58.13052391334266</v>
@@ -33292,7 +33292,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T30" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U30" t="n">
         <v>0.06159634492089149</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H31" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I31" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J31" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K31" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L31" t="n">
         <v>116.6980789427797</v>
@@ -33365,7 +33365,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R31" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S31" t="n">
         <v>13.67923549793987</v>
@@ -33417,7 +33417,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I32" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J32" t="n">
         <v>148.5182592030361</v>
@@ -33426,7 +33426,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L32" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M32" t="n">
         <v>307.2623370745973</v>
@@ -33435,13 +33435,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O32" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P32" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q32" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R32" t="n">
         <v>109.9204418287482</v>
@@ -33450,7 +33450,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T32" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U32" t="n">
         <v>0.1399898170664413</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H33" t="n">
         <v>9.042343434386868</v>
@@ -33499,7 +33499,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J33" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K33" t="n">
         <v>151.1861753968307</v>
@@ -33511,16 +33511,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N33" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O33" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P33" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q33" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R33" t="n">
         <v>58.13052391334266</v>
@@ -33529,7 +33529,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T33" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U33" t="n">
         <v>0.06159634492089149</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H34" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I34" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J34" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K34" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L34" t="n">
         <v>116.6980789427797</v>
@@ -33602,7 +33602,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R34" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S34" t="n">
         <v>13.67923549793987</v>
@@ -33654,7 +33654,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I35" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J35" t="n">
         <v>148.5182592030361</v>
@@ -33663,7 +33663,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L35" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M35" t="n">
         <v>307.2623370745973</v>
@@ -33672,13 +33672,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O35" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P35" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q35" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R35" t="n">
         <v>109.9204418287482</v>
@@ -33687,7 +33687,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T35" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U35" t="n">
         <v>0.1399898170664413</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H36" t="n">
         <v>9.042343434386868</v>
@@ -33736,7 +33736,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J36" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K36" t="n">
         <v>151.1861753968307</v>
@@ -33748,16 +33748,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N36" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O36" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P36" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R36" t="n">
         <v>58.13052391334266</v>
@@ -33766,7 +33766,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T36" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U36" t="n">
         <v>0.06159634492089149</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H37" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I37" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J37" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K37" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L37" t="n">
         <v>116.6980789427797</v>
@@ -33839,7 +33839,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R37" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S37" t="n">
         <v>13.67923549793987</v>
@@ -33891,7 +33891,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I38" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J38" t="n">
         <v>148.5182592030361</v>
@@ -33900,7 +33900,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L38" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M38" t="n">
         <v>307.2623370745973</v>
@@ -33909,13 +33909,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O38" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P38" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q38" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R38" t="n">
         <v>109.9204418287482</v>
@@ -33924,7 +33924,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T38" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U38" t="n">
         <v>0.1399898170664413</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H39" t="n">
         <v>9.042343434386868</v>
@@ -33973,7 +33973,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J39" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K39" t="n">
         <v>151.1861753968307</v>
@@ -33985,16 +33985,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N39" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O39" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P39" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q39" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R39" t="n">
         <v>58.13052391334266</v>
@@ -34003,7 +34003,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T39" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U39" t="n">
         <v>0.06159634492089149</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H40" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I40" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J40" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K40" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L40" t="n">
         <v>116.6980789427797</v>
@@ -34076,7 +34076,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R40" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S40" t="n">
         <v>13.67923549793987</v>
@@ -34128,7 +34128,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I41" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J41" t="n">
         <v>148.5182592030361</v>
@@ -34137,7 +34137,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L41" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M41" t="n">
         <v>307.2623370745973</v>
@@ -34146,13 +34146,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O41" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P41" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q41" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R41" t="n">
         <v>109.9204418287482</v>
@@ -34161,7 +34161,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T41" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U41" t="n">
         <v>0.1399898170664413</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H42" t="n">
         <v>9.042343434386868</v>
@@ -34210,7 +34210,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J42" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K42" t="n">
         <v>151.1861753968307</v>
@@ -34222,16 +34222,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N42" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O42" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P42" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q42" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R42" t="n">
         <v>58.13052391334266</v>
@@ -34240,7 +34240,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T42" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U42" t="n">
         <v>0.06159634492089149</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H43" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I43" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J43" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K43" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L43" t="n">
         <v>116.6980789427797</v>
@@ -34313,7 +34313,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R43" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S43" t="n">
         <v>13.67923549793987</v>
@@ -34365,7 +34365,7 @@
         <v>17.92088392539616</v>
       </c>
       <c r="I44" t="n">
-        <v>67.4619677806748</v>
+        <v>67.46196778067481</v>
       </c>
       <c r="J44" t="n">
         <v>148.5182592030361</v>
@@ -34374,7 +34374,7 @@
         <v>222.5903711583169</v>
       </c>
       <c r="L44" t="n">
-        <v>276.1430382089057</v>
+        <v>276.1430382089058</v>
       </c>
       <c r="M44" t="n">
         <v>307.2623370745973</v>
@@ -34383,13 +34383,13 @@
         <v>312.2341629213477</v>
       </c>
       <c r="O44" t="n">
-        <v>294.8338661281673</v>
+        <v>294.8338661281674</v>
       </c>
       <c r="P44" t="n">
-        <v>251.6338835178201</v>
+        <v>251.6338835178202</v>
       </c>
       <c r="Q44" t="n">
-        <v>188.9665669716709</v>
+        <v>188.966566971671</v>
       </c>
       <c r="R44" t="n">
         <v>109.9204418287482</v>
@@ -34398,7 +34398,7 @@
         <v>39.87522445501919</v>
       </c>
       <c r="T44" t="n">
-        <v>7.66006780260434</v>
+        <v>7.660067802604341</v>
       </c>
       <c r="U44" t="n">
         <v>0.1399898170664413</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9362644427975502</v>
+        <v>0.9362644427975503</v>
       </c>
       <c r="H45" t="n">
         <v>9.042343434386868</v>
@@ -34447,7 +34447,7 @@
         <v>32.23542050859987</v>
       </c>
       <c r="J45" t="n">
-        <v>88.45645772939487</v>
+        <v>88.45645772939488</v>
       </c>
       <c r="K45" t="n">
         <v>151.1861753968307</v>
@@ -34459,16 +34459,16 @@
         <v>237.2280564053266</v>
       </c>
       <c r="N45" t="n">
-        <v>243.5067771642628</v>
+        <v>243.5067771642629</v>
       </c>
       <c r="O45" t="n">
         <v>222.7611281949066</v>
       </c>
       <c r="P45" t="n">
-        <v>178.7854443443848</v>
+        <v>178.7854443443849</v>
       </c>
       <c r="Q45" t="n">
-        <v>119.5133348385083</v>
+        <v>119.5133348385084</v>
       </c>
       <c r="R45" t="n">
         <v>58.13052391334266</v>
@@ -34477,7 +34477,7 @@
         <v>17.39070138266501</v>
       </c>
       <c r="T45" t="n">
-        <v>3.773802732153282</v>
+        <v>3.773802732153283</v>
       </c>
       <c r="U45" t="n">
         <v>0.06159634492089149</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.784932657680431</v>
+        <v>0.7849326576804311</v>
       </c>
       <c r="H46" t="n">
-        <v>6.978764901922382</v>
+        <v>6.978764901922383</v>
       </c>
       <c r="I46" t="n">
-        <v>23.6050657418806</v>
+        <v>23.60506574188061</v>
       </c>
       <c r="J46" t="n">
         <v>55.49473889800647</v>
       </c>
       <c r="K46" t="n">
-        <v>91.19490331959913</v>
+        <v>91.19490331959915</v>
       </c>
       <c r="L46" t="n">
         <v>116.6980789427797</v>
@@ -34550,7 +34550,7 @@
         <v>65.72740645358591</v>
       </c>
       <c r="R46" t="n">
-        <v>35.29342658988555</v>
+        <v>35.29342658988556</v>
       </c>
       <c r="S46" t="n">
         <v>13.67923549793987</v>
@@ -35491,13 +35491,13 @@
         <v>37.08721892939486</v>
       </c>
       <c r="K12" t="n">
-        <v>95.36039261221535</v>
+        <v>130.7277357690541</v>
       </c>
       <c r="L12" t="n">
-        <v>211.3957217535093</v>
+        <v>147.1739465430664</v>
       </c>
       <c r="M12" t="n">
-        <v>329.2684303936078</v>
+        <v>179.6637726669092</v>
       </c>
       <c r="N12" t="n">
         <v>190.3133837705128</v>
@@ -35509,10 +35509,10 @@
         <v>124.5258093415811</v>
       </c>
       <c r="Q12" t="n">
-        <v>62.82071633366962</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="R12" t="n">
-        <v>87.98862427963547</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>75.19466786972811</v>
+        <v>75.19466786972814</v>
       </c>
       <c r="K14" t="n">
         <v>133.4539814850997</v>
@@ -35655,7 +35655,7 @@
         <v>180.6576401460609</v>
       </c>
       <c r="M14" t="n">
-        <v>213.9721126175518</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N14" t="n">
         <v>219.3218721647283</v>
@@ -35667,10 +35667,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q14" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R14" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>11.69431504263764</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>283.2169199138729</v>
+        <v>37.08721892939487</v>
       </c>
       <c r="K15" t="n">
-        <v>95.36039261221535</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="L15" t="n">
         <v>147.1739465430664</v>
@@ -35737,7 +35737,7 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N15" t="n">
-        <v>234.3044249601741</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O15" t="n">
         <v>165.0096491949066</v>
@@ -35746,7 +35746,7 @@
         <v>124.5258093415811</v>
       </c>
       <c r="Q15" t="n">
-        <v>62.82071633366962</v>
+        <v>130.7277357690539</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>4.061593215051047</v>
+        <v>4.061593215051055</v>
       </c>
       <c r="K16" t="n">
-        <v>247.308365665294</v>
+        <v>38.94453376053232</v>
       </c>
       <c r="L16" t="n">
-        <v>62.06978504887822</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="M16" t="n">
-        <v>66.77681946834423</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="N16" t="n">
-        <v>159.6806102509915</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2684303936078</v>
+        <v>229.4364522281393</v>
       </c>
       <c r="P16" t="n">
-        <v>302.6870070198348</v>
+        <v>39.15419543082658</v>
       </c>
       <c r="Q16" t="n">
-        <v>131.9173355470312</v>
+        <v>4.367880793660348</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>75.19466786972811</v>
+        <v>75.19466786972795</v>
       </c>
       <c r="K17" t="n">
         <v>133.4539814850997</v>
@@ -35892,7 +35892,7 @@
         <v>180.6576401460609</v>
       </c>
       <c r="M17" t="n">
-        <v>213.9721126175518</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N17" t="n">
         <v>219.3218721647283</v>
@@ -35904,10 +35904,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q17" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R17" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>11.69431504263765</v>
       </c>
       <c r="J18" t="n">
-        <v>37.08721892939486</v>
+        <v>283.2169199138729</v>
       </c>
       <c r="K18" t="n">
-        <v>258.2204032058973</v>
+        <v>95.36039261221535</v>
       </c>
       <c r="L18" t="n">
         <v>147.1739465430664</v>
@@ -35974,7 +35974,7 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N18" t="n">
-        <v>329.2684303936077</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O18" t="n">
         <v>165.0096491949066</v>
@@ -35983,10 +35983,10 @@
         <v>124.5258093415811</v>
       </c>
       <c r="Q18" t="n">
-        <v>62.82071633366962</v>
+        <v>62.82071633366965</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>43.99104118966107</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>4.061593215051047</v>
+        <v>4.061593215051055</v>
       </c>
       <c r="K19" t="n">
-        <v>247.308365665294</v>
+        <v>38.94453376053232</v>
       </c>
       <c r="L19" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="M19" t="n">
-        <v>329.2684303936077</v>
+        <v>229.4364522281392</v>
       </c>
       <c r="N19" t="n">
-        <v>295.4692855025691</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="O19" t="n">
-        <v>54.87176521441591</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="P19" t="n">
         <v>39.15419543082658</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>75.19466786972772</v>
+        <v>75.19466786972814</v>
       </c>
       <c r="K20" t="n">
         <v>133.4539814850997</v>
@@ -36129,7 +36129,7 @@
         <v>180.6576401460609</v>
       </c>
       <c r="M20" t="n">
-        <v>213.9721126175518</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N20" t="n">
         <v>219.3218721647283</v>
@@ -36141,10 +36141,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q20" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R20" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402423</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>37.08721892939486</v>
+        <v>72.4545620862331</v>
       </c>
       <c r="K21" t="n">
         <v>95.36039261221535</v>
@@ -36208,10 +36208,10 @@
         <v>147.1739465430664</v>
       </c>
       <c r="M21" t="n">
-        <v>329.2684303936077</v>
+        <v>179.6637726669092</v>
       </c>
       <c r="N21" t="n">
-        <v>254.5351589809553</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O21" t="n">
         <v>165.0096491949066</v>
@@ -36220,10 +36220,10 @@
         <v>124.5258093415811</v>
       </c>
       <c r="Q21" t="n">
-        <v>62.82071633366962</v>
+        <v>329.2684303936077</v>
       </c>
       <c r="R21" t="n">
-        <v>87.98862427963547</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>69.71953627700699</v>
       </c>
       <c r="K22" t="n">
-        <v>38.94453376053231</v>
+        <v>38.94453376053232</v>
       </c>
       <c r="L22" t="n">
-        <v>298.7206653380757</v>
+        <v>62.06978504887824</v>
       </c>
       <c r="M22" t="n">
-        <v>66.77681946834423</v>
+        <v>329.2684303936077</v>
       </c>
       <c r="N22" t="n">
         <v>329.2684303936077</v>
@@ -36296,10 +36296,10 @@
         <v>329.2684303936077</v>
       </c>
       <c r="P22" t="n">
-        <v>39.15419543082658</v>
+        <v>140.8629195481317</v>
       </c>
       <c r="Q22" t="n">
-        <v>131.9173355470312</v>
+        <v>4.367880793660348</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>75.19466786972811</v>
+        <v>405.2712606856162</v>
       </c>
       <c r="K23" t="n">
-        <v>553.4441913019822</v>
+        <v>133.4539814850997</v>
       </c>
       <c r="L23" t="n">
         <v>180.6576401460609</v>
@@ -36369,7 +36369,7 @@
         <v>658.5368607872156</v>
       </c>
       <c r="N23" t="n">
-        <v>658.5368607872156</v>
+        <v>620.1720261961478</v>
       </c>
       <c r="O23" t="n">
         <v>201.6440905023842</v>
@@ -36378,10 +36378,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q23" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R23" t="n">
-        <v>22.60829901402464</v>
+        <v>150.8867506060864</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>283.2169199138729</v>
       </c>
       <c r="K24" t="n">
-        <v>95.36039261221535</v>
+        <v>363.5806527598177</v>
       </c>
       <c r="L24" t="n">
         <v>147.1739465430664</v>
@@ -36448,19 +36448,19 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N24" t="n">
-        <v>190.3133837705128</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O24" t="n">
-        <v>309.2897235572524</v>
+        <v>165.0096491949066</v>
       </c>
       <c r="P24" t="n">
-        <v>658.5368607872156</v>
+        <v>124.5258093415811</v>
       </c>
       <c r="Q24" t="n">
-        <v>62.82071633366962</v>
+        <v>472.8915819940471</v>
       </c>
       <c r="R24" t="n">
-        <v>87.98862427963547</v>
+        <v>87.98862427963549</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>69.71953627700699</v>
       </c>
       <c r="K25" t="n">
-        <v>247.308365665294</v>
+        <v>247.3083656652941</v>
       </c>
       <c r="L25" t="n">
-        <v>379.2204024579924</v>
+        <v>379.2204024579925</v>
       </c>
       <c r="M25" t="n">
         <v>415.2276775635821</v>
@@ -36530,7 +36530,7 @@
         <v>403.7916416513764</v>
       </c>
       <c r="O25" t="n">
-        <v>373.1290979606184</v>
+        <v>373.1290979606185</v>
       </c>
       <c r="P25" t="n">
         <v>302.6870070198348</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>75.19466786972811</v>
+        <v>75.19466786972814</v>
       </c>
       <c r="K26" t="n">
-        <v>133.4539814850997</v>
+        <v>658.5368607872156</v>
       </c>
       <c r="L26" t="n">
         <v>658.5368607872156</v>
       </c>
       <c r="M26" t="n">
-        <v>658.5368607872156</v>
+        <v>386.5015076912529</v>
       </c>
       <c r="N26" t="n">
-        <v>600.6478499629435</v>
+        <v>219.3218721647283</v>
       </c>
       <c r="O26" t="n">
         <v>201.6440905023842</v>
@@ -36615,10 +36615,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q26" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R26" t="n">
-        <v>22.60829901402464</v>
+        <v>150.8867506060864</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>11.69431504263765</v>
       </c>
       <c r="J27" t="n">
-        <v>37.08721892939486</v>
+        <v>283.2169199138729</v>
       </c>
       <c r="K27" t="n">
         <v>95.36039261221535</v>
@@ -36685,19 +36685,19 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N27" t="n">
-        <v>190.3133837705128</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O27" t="n">
         <v>165.0096491949066</v>
       </c>
       <c r="P27" t="n">
-        <v>638.8757704736618</v>
+        <v>381.0517544465458</v>
       </c>
       <c r="Q27" t="n">
         <v>472.8915819940471</v>
       </c>
       <c r="R27" t="n">
-        <v>87.98862427963547</v>
+        <v>87.98862427963549</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36758,7 +36758,7 @@
         <v>276.4893375656945</v>
       </c>
       <c r="L28" t="n">
-        <v>408.4013743583928</v>
+        <v>408.4013743583929</v>
       </c>
       <c r="M28" t="n">
         <v>444.4086494639826</v>
@@ -36770,7 +36770,7 @@
         <v>402.3100698610189</v>
       </c>
       <c r="P28" t="n">
-        <v>331.8679789202353</v>
+        <v>331.8679789202352</v>
       </c>
       <c r="Q28" t="n">
         <v>161.0983074474317</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>75.19466786972811</v>
+        <v>405.2712606856162</v>
       </c>
       <c r="K29" t="n">
-        <v>133.4539814850997</v>
+        <v>658.5368607872156</v>
       </c>
       <c r="L29" t="n">
-        <v>600.6478499629434</v>
+        <v>180.6576401460609</v>
       </c>
       <c r="M29" t="n">
-        <v>658.5368607872156</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N29" t="n">
-        <v>658.5368607872156</v>
+        <v>219.3218721647283</v>
       </c>
       <c r="O29" t="n">
         <v>201.6440905023842</v>
       </c>
       <c r="P29" t="n">
-        <v>157.984520236936</v>
+        <v>606.5949947279651</v>
       </c>
       <c r="Q29" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R29" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>37.08721892939486</v>
+        <v>37.08721892939487</v>
       </c>
       <c r="K30" t="n">
-        <v>95.36039261221535</v>
+        <v>611.5965352607689</v>
       </c>
       <c r="L30" t="n">
         <v>147.1739465430664</v>
@@ -36922,19 +36922,19 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N30" t="n">
-        <v>621.2069989706621</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O30" t="n">
-        <v>658.5368607872156</v>
+        <v>165.0096491949066</v>
       </c>
       <c r="P30" t="n">
         <v>124.5258093415811</v>
       </c>
       <c r="Q30" t="n">
-        <v>62.82071633366962</v>
+        <v>472.8915819940471</v>
       </c>
       <c r="R30" t="n">
-        <v>87.98862427963547</v>
+        <v>86.10244276316247</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,13 +36989,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>98.90050817740745</v>
+        <v>98.90050817740743</v>
       </c>
       <c r="K31" t="n">
         <v>276.4893375656945</v>
       </c>
       <c r="L31" t="n">
-        <v>408.4013743583928</v>
+        <v>408.4013743583929</v>
       </c>
       <c r="M31" t="n">
         <v>444.4086494639826</v>
@@ -37007,7 +37007,7 @@
         <v>402.3100698610189</v>
       </c>
       <c r="P31" t="n">
-        <v>331.8679789202353</v>
+        <v>331.8679789202352</v>
       </c>
       <c r="Q31" t="n">
         <v>161.0983074474316</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>75.19466786972811</v>
+        <v>405.2712606856162</v>
       </c>
       <c r="K32" t="n">
-        <v>133.4539814850997</v>
+        <v>658.5368607872156</v>
       </c>
       <c r="L32" t="n">
-        <v>600.6478499629434</v>
+        <v>629.2681146370907</v>
       </c>
       <c r="M32" t="n">
-        <v>658.5368607872156</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N32" t="n">
-        <v>658.5368607872156</v>
+        <v>219.3218721647283</v>
       </c>
       <c r="O32" t="n">
         <v>201.6440905023842</v>
@@ -37089,10 +37089,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q32" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R32" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.69431504263765</v>
       </c>
       <c r="J33" t="n">
-        <v>37.08721892939486</v>
+        <v>283.2169199138729</v>
       </c>
       <c r="K33" t="n">
-        <v>95.36039261221535</v>
+        <v>611.5965352607689</v>
       </c>
       <c r="L33" t="n">
         <v>147.1739465430664</v>
       </c>
       <c r="M33" t="n">
-        <v>658.5368607872156</v>
+        <v>179.6637726669092</v>
       </c>
       <c r="N33" t="n">
-        <v>190.3133837705128</v>
+        <v>340.6740518873016</v>
       </c>
       <c r="O33" t="n">
-        <v>610.5573878670584</v>
+        <v>165.0096491949066</v>
       </c>
       <c r="P33" t="n">
         <v>124.5258093415811</v>
       </c>
       <c r="Q33" t="n">
-        <v>62.82071633366962</v>
+        <v>62.82071633366965</v>
       </c>
       <c r="R33" t="n">
-        <v>87.98862427963547</v>
+        <v>87.98862427963549</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>69.71953627700699</v>
       </c>
       <c r="K34" t="n">
-        <v>247.308365665294</v>
+        <v>247.3083656652941</v>
       </c>
       <c r="L34" t="n">
-        <v>379.2204024579924</v>
+        <v>379.2204024579925</v>
       </c>
       <c r="M34" t="n">
         <v>415.2276775635821</v>
@@ -37241,7 +37241,7 @@
         <v>403.7916416513764</v>
       </c>
       <c r="O34" t="n">
-        <v>373.1290979606184</v>
+        <v>373.1290979606185</v>
       </c>
       <c r="P34" t="n">
         <v>302.6870070198348</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>75.19466786972811</v>
+        <v>75.19466786972814</v>
       </c>
       <c r="K35" t="n">
         <v>133.4539814850997</v>
@@ -37314,22 +37314,22 @@
         <v>180.6576401460609</v>
       </c>
       <c r="M35" t="n">
-        <v>213.9721126175518</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N35" t="n">
         <v>219.3218721647283</v>
       </c>
       <c r="O35" t="n">
-        <v>201.6440905023842</v>
+        <v>201.6440905023843</v>
       </c>
       <c r="P35" t="n">
         <v>157.984520236936</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R35" t="n">
-        <v>22.60829901402469</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>11.69431504263764</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>37.08721892939486</v>
+        <v>37.08721892939487</v>
       </c>
       <c r="K36" t="n">
-        <v>95.36039261221535</v>
+        <v>130.727735769054</v>
       </c>
       <c r="L36" t="n">
         <v>147.1739465430664</v>
@@ -37396,16 +37396,16 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N36" t="n">
-        <v>190.3133837705128</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O36" t="n">
-        <v>188.6826773091076</v>
+        <v>165.0096491949066</v>
       </c>
       <c r="P36" t="n">
         <v>124.5258093415811</v>
       </c>
       <c r="Q36" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,22 +37466,22 @@
         <v>69.71953627700699</v>
       </c>
       <c r="K37" t="n">
-        <v>247.308365665294</v>
+        <v>247.3083656652941</v>
       </c>
       <c r="L37" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="M37" t="n">
-        <v>66.77681946834423</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="N37" t="n">
-        <v>217.906288186685</v>
+        <v>68.40345837098697</v>
       </c>
       <c r="O37" t="n">
-        <v>329.2684303936077</v>
+        <v>54.87176521441592</v>
       </c>
       <c r="P37" t="n">
-        <v>39.15419543082658</v>
+        <v>200.5620795004532</v>
       </c>
       <c r="Q37" t="n">
         <v>4.367880793660348</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>75.19466786972811</v>
+        <v>75.19466786972814</v>
       </c>
       <c r="K38" t="n">
         <v>133.4539814850997</v>
@@ -37551,7 +37551,7 @@
         <v>180.6576401460609</v>
       </c>
       <c r="M38" t="n">
-        <v>213.9721126175518</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N38" t="n">
         <v>219.3218721647283</v>
@@ -37563,10 +37563,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q38" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251898</v>
       </c>
       <c r="R38" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>11.69431504263764</v>
+        <v>11.69431504263765</v>
       </c>
       <c r="J39" t="n">
-        <v>37.08721892939486</v>
+        <v>37.08721892939487</v>
       </c>
       <c r="K39" t="n">
         <v>95.36039261221535</v>
@@ -37633,19 +37633,19 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N39" t="n">
-        <v>190.3133837705128</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O39" t="n">
         <v>165.0096491949066</v>
       </c>
       <c r="P39" t="n">
-        <v>124.5258093415811</v>
+        <v>326.6579272360848</v>
       </c>
       <c r="Q39" t="n">
-        <v>264.9528342281731</v>
+        <v>62.82071633366965</v>
       </c>
       <c r="R39" t="n">
-        <v>87.98862427963547</v>
+        <v>87.98862427963549</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>4.061593215051047</v>
+        <v>4.061593215051055</v>
       </c>
       <c r="K40" t="n">
-        <v>38.94453376053231</v>
+        <v>38.94453376053232</v>
       </c>
       <c r="L40" t="n">
-        <v>228.3952515643946</v>
+        <v>229.4364522281394</v>
       </c>
       <c r="M40" t="n">
-        <v>66.77681946834423</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="N40" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="O40" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="P40" t="n">
-        <v>302.6870070198348</v>
+        <v>39.15419543082658</v>
       </c>
       <c r="Q40" t="n">
         <v>4.367880793660348</v>
@@ -37779,16 +37779,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>75.19466786972811</v>
+        <v>75.19466786972814</v>
       </c>
       <c r="K41" t="n">
-        <v>133.4539814850993</v>
+        <v>133.4539814850997</v>
       </c>
       <c r="L41" t="n">
         <v>180.6576401460609</v>
       </c>
       <c r="M41" t="n">
-        <v>213.9721126175518</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N41" t="n">
         <v>219.3218721647283</v>
@@ -37800,10 +37800,10 @@
         <v>157.984520236936</v>
       </c>
       <c r="Q41" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R41" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>11.69431504263764</v>
+        <v>11.69431504263765</v>
       </c>
       <c r="J42" t="n">
-        <v>37.08721892939486</v>
+        <v>283.2169199138729</v>
       </c>
       <c r="K42" t="n">
         <v>95.36039261221535</v>
@@ -37870,7 +37870,7 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N42" t="n">
-        <v>190.3133837705128</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O42" t="n">
         <v>165.0096491949066</v>
@@ -37879,10 +37879,10 @@
         <v>124.5258093415811</v>
       </c>
       <c r="Q42" t="n">
-        <v>264.9528342281729</v>
+        <v>106.8117575233309</v>
       </c>
       <c r="R42" t="n">
-        <v>87.98862427963547</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.71953627700699</v>
+        <v>4.061593215051055</v>
       </c>
       <c r="K43" t="n">
-        <v>247.308365665294</v>
+        <v>38.94453376053232</v>
       </c>
       <c r="L43" t="n">
-        <v>227.1435028742259</v>
+        <v>62.06978504887824</v>
       </c>
       <c r="M43" t="n">
-        <v>329.2684303936077</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="N43" t="n">
-        <v>68.40345837098695</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="O43" t="n">
-        <v>54.87176521441591</v>
+        <v>329.2684303936078</v>
       </c>
       <c r="P43" t="n">
-        <v>302.6870070198348</v>
+        <v>206.5208626100877</v>
       </c>
       <c r="Q43" t="n">
         <v>4.367880793660348</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>75.19466786972811</v>
+        <v>75.19466786972814</v>
       </c>
       <c r="K44" t="n">
         <v>133.4539814850997</v>
       </c>
       <c r="L44" t="n">
-        <v>180.6576401460614</v>
+        <v>180.6576401460609</v>
       </c>
       <c r="M44" t="n">
-        <v>213.9721126175518</v>
+        <v>213.9721126175519</v>
       </c>
       <c r="N44" t="n">
         <v>219.3218721647283</v>
       </c>
       <c r="O44" t="n">
-        <v>201.6440905023842</v>
+        <v>201.6440905023848</v>
       </c>
       <c r="P44" t="n">
         <v>157.984520236936</v>
       </c>
       <c r="Q44" t="n">
-        <v>98.9327625725189</v>
+        <v>98.93276257251893</v>
       </c>
       <c r="R44" t="n">
-        <v>22.60829901402464</v>
+        <v>22.60829901402465</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>11.69431504263764</v>
+        <v>11.69431504263765</v>
       </c>
       <c r="J45" t="n">
-        <v>37.08721892939486</v>
+        <v>37.08721892939487</v>
       </c>
       <c r="K45" t="n">
         <v>95.36039261221535</v>
@@ -38107,19 +38107,19 @@
         <v>179.6637726669092</v>
       </c>
       <c r="N45" t="n">
-        <v>190.3133837705128</v>
+        <v>190.3133837705129</v>
       </c>
       <c r="O45" t="n">
         <v>165.0096491949066</v>
       </c>
       <c r="P45" t="n">
-        <v>326.6579272360852</v>
+        <v>148.1988374557824</v>
       </c>
       <c r="Q45" t="n">
-        <v>62.82071633366962</v>
+        <v>329.268430393608</v>
       </c>
       <c r="R45" t="n">
-        <v>87.98862427963547</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>69.71953627700699</v>
       </c>
       <c r="K46" t="n">
-        <v>247.308365665294</v>
+        <v>247.3083656652941</v>
       </c>
       <c r="L46" t="n">
-        <v>329.2684303936079</v>
+        <v>329.268430393608</v>
       </c>
       <c r="M46" t="n">
-        <v>329.2684303936079</v>
+        <v>66.77681946834424</v>
       </c>
       <c r="N46" t="n">
-        <v>102.2618876872426</v>
+        <v>68.40345837098697</v>
       </c>
       <c r="O46" t="n">
-        <v>54.87176521441591</v>
+        <v>87.68899386692729</v>
       </c>
       <c r="P46" t="n">
-        <v>39.15419543082658</v>
+        <v>302.6870070198348</v>
       </c>
       <c r="Q46" t="n">
         <v>131.9173355470312</v>
